--- a/results/140418-W05.1-1405-2014-Paganello-Pairs.xlsx
+++ b/results/140418-W05.1-1405-2014-Paganello-Pairs.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0baef4825c0f17ed/Dokumente/Frisbee/Rankings/Turniere-berechnet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FpaExcelResultsParser\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB1D731-164E-40AC-BF52-13DE765AD37E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="W05.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_FilterDatabase" localSheetId="0" hidden="1">W05.1!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'W05.1'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,14 +28,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>HannemanK001</author>
     <author>Kolja Hannemann</author>
     <author>Kolja</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -89,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -102,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -129,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L8" authorId="0" shapeId="0">
+    <comment ref="L8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -143,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -157,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="0" shapeId="0">
+    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -171,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -201,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -215,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="1" shapeId="0">
+    <comment ref="E16" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -229,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="2" shapeId="0">
+    <comment ref="F16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -252,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="2" shapeId="0">
+    <comment ref="G16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -275,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="2" shapeId="0">
+    <comment ref="H16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -289,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="2" shapeId="0">
+    <comment ref="J16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -302,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M16" authorId="2" shapeId="0">
+    <comment ref="M16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -316,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N16" authorId="2" shapeId="0">
+    <comment ref="N16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -330,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q17" authorId="2" shapeId="0">
+    <comment ref="Q17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -344,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R17" authorId="2" shapeId="0">
+    <comment ref="R17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -358,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S17" authorId="2" shapeId="0">
+    <comment ref="S17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -372,7 +373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0" shapeId="0">
+    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -386,7 +387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H37" authorId="0" shapeId="0">
+    <comment ref="H37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -410,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B59" authorId="0" shapeId="0">
+    <comment ref="B59" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -424,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H59" authorId="0" shapeId="0">
+    <comment ref="H59" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -448,7 +449,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E60" authorId="1" shapeId="0">
+    <comment ref="E60" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -462,7 +463,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B78" authorId="1" shapeId="0">
+    <comment ref="B78" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -476,7 +477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H78" authorId="0" shapeId="0">
+    <comment ref="H78" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -500,7 +501,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E79" authorId="1" shapeId="0">
+    <comment ref="E79" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -514,7 +515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B103" authorId="1" shapeId="0">
+    <comment ref="B103" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -528,7 +529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H103" authorId="0" shapeId="0">
+    <comment ref="H103" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -552,7 +553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E104" authorId="1" shapeId="0">
+    <comment ref="E104" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
       <text>
         <r>
           <rPr>
@@ -783,9 +784,6 @@
     <t>Place:</t>
   </si>
   <si>
-    <t>18.-20.4.2014</t>
-  </si>
-  <si>
     <t>Date:</t>
   </si>
   <si>
@@ -812,11 +810,14 @@
   <si>
     <t>Marioni, Dario</t>
   </si>
+  <si>
+    <t>18.4.2014-20.4.2014</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1832,10 +1833,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -1884,10 +1881,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -1939,10 +1932,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -1993,18 +1982,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
@@ -2039,18 +2016,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2190,18 +2155,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
@@ -2234,116 +2187,12 @@
       <alignment wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -2374,179 +2223,296 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="5" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -2829,17 +2795,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle11">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AG123"/>
+  <dimension ref="A1:AA123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Z108" sqref="Z108"/>
+      <selection activeCell="I4" sqref="I4:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" style="1" customWidth="1"/>
@@ -2868,69 +2834,69 @@
   <sheetData>
     <row r="1" spans="1:27" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="195" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="193" t="s">
+      <c r="B2" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="192"/>
-      <c r="K2" s="192"/>
-      <c r="L2" s="192"/>
-      <c r="M2" s="191"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="186" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="188"/>
       <c r="N2" s="1"/>
-      <c r="T2" s="159"/>
+      <c r="T2" s="121"/>
     </row>
     <row r="3" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="174" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="172" t="s">
+      <c r="B3" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="189"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="170" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="189"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="190"/>
       <c r="N3" s="1"/>
-      <c r="T3" s="159" t="s">
-        <v>73</v>
+      <c r="T3" s="121" t="s">
+        <v>72</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="180" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="188" t="s">
+      <c r="B4" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="176"/>
-      <c r="K4" s="176"/>
-      <c r="L4" s="176"/>
-      <c r="M4" s="181"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="191" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="182"/>
+      <c r="K4" s="182"/>
+      <c r="L4" s="182"/>
+      <c r="M4" s="183"/>
       <c r="N4" s="1"/>
-      <c r="T4" s="159">
+      <c r="T4" s="121">
         <v>2</v>
       </c>
       <c r="U4" s="4">
@@ -2938,72 +2904,72 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="174" t="s">
+      <c r="B5" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="172" t="s">
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="170" t="s">
         <v>68</v>
       </c>
       <c r="J5" s="171"/>
       <c r="K5" s="171"/>
       <c r="L5" s="171"/>
-      <c r="M5" s="170"/>
+      <c r="M5" s="172"/>
       <c r="N5" s="1"/>
-      <c r="T5" s="159"/>
+      <c r="T5" s="121"/>
     </row>
     <row r="6" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="180" t="s">
+      <c r="B6" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="179"/>
-      <c r="D6" s="179"/>
-      <c r="E6" s="179"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="179"/>
-      <c r="H6" s="179"/>
-      <c r="I6" s="187">
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="192">
         <v>20</v>
       </c>
-      <c r="J6" s="186"/>
-      <c r="K6" s="186"/>
-      <c r="L6" s="186"/>
-      <c r="M6" s="185"/>
+      <c r="J6" s="193"/>
+      <c r="K6" s="193"/>
+      <c r="L6" s="193"/>
+      <c r="M6" s="194"/>
       <c r="N6" s="1"/>
-      <c r="T6" s="159" t="s">
+      <c r="T6" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="U6" s="184">
+      <c r="U6" s="129">
         <v>6</v>
       </c>
-      <c r="V6" s="184"/>
-      <c r="W6" s="183"/>
-      <c r="X6" s="183"/>
+      <c r="V6" s="129"/>
+      <c r="W6" s="128"/>
+      <c r="X6" s="128"/>
     </row>
     <row r="7" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="174" t="s">
+      <c r="B7" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="182">
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="195">
         <v>1.2</v>
       </c>
       <c r="J7" s="171"/>
       <c r="K7" s="171"/>
       <c r="L7" s="171"/>
-      <c r="M7" s="170"/>
+      <c r="M7" s="172"/>
       <c r="N7" s="1"/>
-      <c r="T7" s="159" t="s">
+      <c r="T7" s="121" t="s">
         <v>64</v>
       </c>
       <c r="U7" s="4">
@@ -3011,204 +2977,204 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="180" t="s">
+      <c r="B8" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="179"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="178" t="s">
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="176"/>
-      <c r="K8" s="176"/>
-      <c r="L8" s="176" t="s">
+      <c r="J8" s="182"/>
+      <c r="K8" s="182"/>
+      <c r="L8" s="182" t="s">
         <v>62</v>
       </c>
-      <c r="M8" s="181"/>
+      <c r="M8" s="183"/>
       <c r="N8" s="1"/>
-      <c r="T8" s="159" t="s">
+      <c r="T8" s="121" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="174" t="s">
+      <c r="B9" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="173"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="173"/>
-      <c r="F9" s="173"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="173"/>
-      <c r="I9" s="172"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="170"/>
       <c r="J9" s="171"/>
       <c r="K9" s="171"/>
       <c r="L9" s="171" t="s">
         <v>60</v>
       </c>
-      <c r="M9" s="170"/>
+      <c r="M9" s="172"/>
       <c r="N9" s="1"/>
-      <c r="T9" s="159" t="s">
+      <c r="T9" s="121" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="180" t="s">
+      <c r="B10" s="127" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="179"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="177"/>
-      <c r="K10" s="177"/>
-      <c r="L10" s="176"/>
-      <c r="M10" s="175"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="184"/>
+      <c r="K10" s="184"/>
+      <c r="L10" s="182"/>
+      <c r="M10" s="185"/>
       <c r="N10" s="1"/>
-      <c r="T10" s="159"/>
+      <c r="T10" s="121"/>
     </row>
     <row r="11" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="174" t="s">
+      <c r="B11" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="173"/>
-      <c r="D11" s="173"/>
-      <c r="E11" s="173"/>
-      <c r="F11" s="173"/>
-      <c r="G11" s="173"/>
-      <c r="H11" s="173"/>
-      <c r="I11" s="172">
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="170">
         <v>1405</v>
       </c>
       <c r="J11" s="171"/>
       <c r="K11" s="171"/>
       <c r="L11" s="171"/>
-      <c r="M11" s="170"/>
+      <c r="M11" s="172"/>
       <c r="N11" s="1"/>
-      <c r="T11" s="159"/>
+      <c r="T11" s="121"/>
     </row>
     <row r="12" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="169" t="s">
+      <c r="B12" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="168"/>
-      <c r="D12" s="168"/>
-      <c r="E12" s="168"/>
-      <c r="F12" s="168"/>
-      <c r="G12" s="168"/>
-      <c r="H12" s="168"/>
-      <c r="I12" s="167">
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="173">
         <v>1605</v>
       </c>
-      <c r="J12" s="166"/>
-      <c r="K12" s="166"/>
-      <c r="L12" s="166"/>
-      <c r="M12" s="165"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="174"/>
+      <c r="M12" s="175"/>
       <c r="N12" s="1"/>
-      <c r="T12" s="159"/>
+      <c r="T12" s="121"/>
     </row>
     <row r="13" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="164"/>
-      <c r="C13" s="163"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="161"/>
-      <c r="K13" s="161"/>
-      <c r="L13" s="161"/>
-      <c r="M13" s="160"/>
+      <c r="B13" s="176"/>
+      <c r="C13" s="177"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="179"/>
+      <c r="K13" s="179"/>
+      <c r="L13" s="179"/>
+      <c r="M13" s="180"/>
       <c r="N13" s="1"/>
-      <c r="T13" s="159"/>
+      <c r="T13" s="121"/>
     </row>
     <row r="14" spans="1:27" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:27" s="65" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="158" t="s">
+    <row r="15" spans="1:27" s="59" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="157" t="s">
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="66"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="75"/>
-      <c r="S15" s="74"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="60"/>
+      <c r="Q15" s="135"/>
+      <c r="R15" s="136"/>
+      <c r="S15" s="137"/>
       <c r="T15" s="5">
         <v>6</v>
       </c>
-      <c r="U15" s="156"/>
-      <c r="V15" s="156"/>
-      <c r="W15" s="156"/>
-      <c r="X15" s="122"/>
-      <c r="Y15" s="122"/>
-      <c r="AA15" s="121"/>
+      <c r="U15" s="118"/>
+      <c r="V15" s="118"/>
+      <c r="W15" s="118"/>
+      <c r="X15" s="110"/>
+      <c r="Y15" s="110"/>
+      <c r="AA15" s="109"/>
     </row>
     <row r="16" spans="1:27" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="155"/>
-      <c r="B16" s="69" t="s">
+      <c r="A16" s="117"/>
+      <c r="B16" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="72" t="s">
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="68" t="s">
+      <c r="G16" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="119" t="s">
+      <c r="H16" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="58"/>
-      <c r="J16" s="118" t="s">
+      <c r="I16" s="55"/>
+      <c r="J16" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="117" t="s">
+      <c r="K16" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="L16" s="117" t="s">
+      <c r="L16" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="M16" s="117" t="s">
+      <c r="M16" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="N16" s="116" t="s">
+      <c r="N16" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="Q16" s="115" t="s">
+      <c r="Q16" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="R16" s="114"/>
-      <c r="S16" s="113"/>
+      <c r="R16" s="142"/>
+      <c r="S16" s="143"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="123" t="s">
+      <c r="U16" s="111" t="s">
         <v>55</v>
       </c>
       <c r="V16" s="4" t="s">
@@ -3218,27 +3184,27 @@
       <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="155"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="54"/>
-      <c r="Q17" s="103" t="s">
+      <c r="A17" s="117"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="51"/>
+      <c r="Q17" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="R17" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="S17" s="101" t="s">
+      <c r="R17" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" s="92" t="s">
         <v>1</v>
       </c>
       <c r="T17" s="5"/>
@@ -3249,50 +3215,50 @@
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="47">
+      <c r="B18" s="132">
         <v>1</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18" s="44">
         <v>1</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="44">
         <v>1</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="43">
+      <c r="G18" s="41">
         <v>26</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="40">
         <v>2.5</v>
       </c>
       <c r="I18" s="12"/>
-      <c r="J18" s="95">
+      <c r="J18" s="86">
         <v>150</v>
       </c>
-      <c r="K18" s="40">
+      <c r="K18" s="38">
         <v>3.5</v>
       </c>
-      <c r="L18" s="39">
+      <c r="L18" s="37">
         <v>1</v>
       </c>
-      <c r="M18" s="38">
+      <c r="M18" s="36">
         <v>56.5</v>
       </c>
-      <c r="N18" s="37">
+      <c r="N18" s="35">
         <v>211</v>
       </c>
-      <c r="Q18" s="50" t="s">
+      <c r="Q18" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="R18" s="49">
+      <c r="R18" s="46">
         <v>105.5</v>
       </c>
-      <c r="S18" s="48" t="s">
+      <c r="S18" s="45" t="s">
         <v>0</v>
       </c>
       <c r="T18" s="5" t="s">
@@ -3308,48 +3274,48 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="32"/>
-      <c r="C19" s="31">
+      <c r="B19" s="133"/>
+      <c r="C19" s="30">
         <v>1</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="30">
         <v>1</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="27">
         <v>18</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="26">
         <v>5</v>
       </c>
       <c r="I19" s="12"/>
-      <c r="J19" s="94">
+      <c r="J19" s="85">
         <v>150</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K19" s="24">
         <v>3.5</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="23">
         <v>1</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="22">
         <v>56.5</v>
       </c>
-      <c r="N19" s="22">
+      <c r="N19" s="21">
         <v>211</v>
       </c>
-      <c r="Q19" s="154" t="s">
+      <c r="Q19" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="R19" s="153">
+      <c r="R19" s="115">
         <v>105.5</v>
       </c>
-      <c r="S19" s="152" t="s">
+      <c r="S19" s="114" t="s">
         <v>0</v>
       </c>
       <c r="T19" s="5" t="s">
@@ -3365,7 +3331,7 @@
       <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
+      <c r="B20" s="134"/>
       <c r="C20" s="17">
         <v>1</v>
       </c>
@@ -3383,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="12"/>
-      <c r="J20" s="93" t="s">
+      <c r="J20" s="84" t="s">
         <v>0</v>
       </c>
       <c r="K20" s="10" t="s">
@@ -3398,13 +3364,13 @@
       <c r="N20" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q20" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="R20" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="S20" s="48" t="s">
+      <c r="Q20" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="R20" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="S20" s="45" t="s">
         <v>0</v>
       </c>
       <c r="T20" s="5" t="s">
@@ -3420,50 +3386,50 @@
       <c r="Y20" s="3"/>
     </row>
     <row r="21" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="47">
-        <v>2</v>
-      </c>
-      <c r="C21" s="46">
-        <v>2</v>
-      </c>
-      <c r="D21" s="46">
-        <v>2</v>
-      </c>
-      <c r="E21" s="45" t="s">
+      <c r="B21" s="132">
+        <v>2</v>
+      </c>
+      <c r="C21" s="44">
+        <v>2</v>
+      </c>
+      <c r="D21" s="44">
+        <v>2</v>
+      </c>
+      <c r="E21" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="41">
         <v>8</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="40">
         <v>7.5</v>
       </c>
       <c r="I21" s="12"/>
-      <c r="J21" s="95">
+      <c r="J21" s="86">
         <v>120</v>
       </c>
-      <c r="K21" s="40">
+      <c r="K21" s="38">
         <v>3.5</v>
       </c>
-      <c r="L21" s="39">
+      <c r="L21" s="37">
         <v>3</v>
       </c>
-      <c r="M21" s="38">
+      <c r="M21" s="36">
         <v>39</v>
       </c>
-      <c r="N21" s="37">
+      <c r="N21" s="35">
         <v>165.5</v>
       </c>
-      <c r="Q21" s="154" t="s">
+      <c r="Q21" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="R21" s="153">
+      <c r="R21" s="115">
         <v>82.75</v>
       </c>
-      <c r="S21" s="152" t="s">
+      <c r="S21" s="114" t="s">
         <v>0</v>
       </c>
       <c r="T21" s="5" t="s">
@@ -3479,48 +3445,48 @@
       <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="32"/>
-      <c r="C22" s="31">
-        <v>2</v>
-      </c>
-      <c r="D22" s="31">
-        <v>2</v>
-      </c>
-      <c r="E22" s="30" t="s">
+      <c r="B22" s="133"/>
+      <c r="C22" s="30">
+        <v>2</v>
+      </c>
+      <c r="D22" s="30">
+        <v>2</v>
+      </c>
+      <c r="E22" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="27">
         <v>1</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="26">
         <v>10</v>
       </c>
       <c r="I22" s="12"/>
-      <c r="J22" s="94">
+      <c r="J22" s="85">
         <v>120</v>
       </c>
-      <c r="K22" s="25">
+      <c r="K22" s="24">
         <v>3.5</v>
       </c>
-      <c r="L22" s="24">
+      <c r="L22" s="23">
         <v>3</v>
       </c>
-      <c r="M22" s="23">
+      <c r="M22" s="22">
         <v>39</v>
       </c>
-      <c r="N22" s="22">
+      <c r="N22" s="21">
         <v>165.5</v>
       </c>
-      <c r="Q22" s="50" t="s">
+      <c r="Q22" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="R22" s="49">
+      <c r="R22" s="46">
         <v>82.75</v>
       </c>
-      <c r="S22" s="48" t="s">
+      <c r="S22" s="45" t="s">
         <v>0</v>
       </c>
       <c r="T22" s="5" t="s">
@@ -3536,7 +3502,7 @@
       <c r="Y22" s="3"/>
     </row>
     <row r="23" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="18"/>
+      <c r="B23" s="134"/>
       <c r="C23" s="17">
         <v>2</v>
       </c>
@@ -3554,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="12"/>
-      <c r="J23" s="93" t="s">
+      <c r="J23" s="84" t="s">
         <v>0</v>
       </c>
       <c r="K23" s="10" t="s">
@@ -3569,13 +3535,13 @@
       <c r="N23" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q23" s="154" t="s">
-        <v>0</v>
-      </c>
-      <c r="R23" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="S23" s="152" t="s">
+      <c r="Q23" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="R23" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="S23" s="114" t="s">
         <v>0</v>
       </c>
       <c r="T23" s="5" t="s">
@@ -3591,50 +3557,50 @@
       <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="47">
+      <c r="B24" s="132">
         <v>3</v>
       </c>
-      <c r="C24" s="46">
+      <c r="C24" s="44">
         <v>3</v>
       </c>
-      <c r="D24" s="46">
+      <c r="D24" s="44">
         <v>3</v>
       </c>
-      <c r="E24" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="44" t="s">
+      <c r="E24" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="43">
+      <c r="G24" s="41">
         <v>6</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="40">
         <v>7.5</v>
       </c>
       <c r="I24" s="12"/>
-      <c r="J24" s="95">
+      <c r="J24" s="86">
         <v>96</v>
       </c>
-      <c r="K24" s="40">
+      <c r="K24" s="38">
         <v>2.5</v>
       </c>
-      <c r="L24" s="39">
+      <c r="L24" s="37">
         <v>1</v>
       </c>
-      <c r="M24" s="38">
+      <c r="M24" s="36">
         <v>26.5</v>
       </c>
-      <c r="N24" s="37">
+      <c r="N24" s="35">
         <v>126</v>
       </c>
-      <c r="Q24" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="R24" s="49">
+      <c r="Q24" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="R24" s="46">
         <v>63</v>
       </c>
-      <c r="S24" s="48" t="s">
+      <c r="S24" s="45" t="s">
         <v>0</v>
       </c>
       <c r="T24" s="5" t="s">
@@ -3650,48 +3616,48 @@
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="32"/>
-      <c r="C25" s="31">
+      <c r="B25" s="133"/>
+      <c r="C25" s="30">
         <v>3</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="30">
         <v>3</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="27">
         <v>14</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="26">
         <v>5</v>
       </c>
       <c r="I25" s="12"/>
-      <c r="J25" s="94">
+      <c r="J25" s="85">
         <v>96</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K25" s="24">
         <v>2.5</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L25" s="23">
         <v>1</v>
       </c>
-      <c r="M25" s="23">
+      <c r="M25" s="22">
         <v>26.5</v>
       </c>
-      <c r="N25" s="22">
+      <c r="N25" s="21">
         <v>126</v>
       </c>
-      <c r="Q25" s="154" t="s">
+      <c r="Q25" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="R25" s="153">
+      <c r="R25" s="115">
         <v>63</v>
       </c>
-      <c r="S25" s="152" t="s">
+      <c r="S25" s="114" t="s">
         <v>0</v>
       </c>
       <c r="T25" s="5" t="s">
@@ -3707,7 +3673,7 @@
       <c r="Y25" s="3"/>
     </row>
     <row r="26" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="18"/>
+      <c r="B26" s="134"/>
       <c r="C26" s="17">
         <v>3</v>
       </c>
@@ -3725,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="12"/>
-      <c r="J26" s="93" t="s">
+      <c r="J26" s="84" t="s">
         <v>0</v>
       </c>
       <c r="K26" s="10" t="s">
@@ -3740,13 +3706,13 @@
       <c r="N26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q26" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="R26" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="S26" s="48" t="s">
+      <c r="Q26" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="R26" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="S26" s="45" t="s">
         <v>0</v>
       </c>
       <c r="T26" s="5" t="s">
@@ -3762,50 +3728,50 @@
       <c r="Y26" s="3"/>
     </row>
     <row r="27" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="47">
+      <c r="B27" s="132">
         <v>4</v>
       </c>
-      <c r="C27" s="46">
+      <c r="C27" s="44">
         <v>4</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="44">
         <v>4</v>
       </c>
-      <c r="E27" s="45" t="s">
+      <c r="E27" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="44" t="s">
+      <c r="F27" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="43">
+      <c r="G27" s="41">
         <v>9</v>
       </c>
-      <c r="H27" s="42">
+      <c r="H27" s="40">
         <v>7.5</v>
       </c>
       <c r="I27" s="12"/>
-      <c r="J27" s="95">
+      <c r="J27" s="86">
         <v>84</v>
       </c>
-      <c r="K27" s="40">
+      <c r="K27" s="38">
         <v>2.5</v>
       </c>
-      <c r="L27" s="39">
+      <c r="L27" s="37">
         <v>3</v>
       </c>
-      <c r="M27" s="38">
+      <c r="M27" s="36">
         <v>11.5</v>
       </c>
-      <c r="N27" s="37">
+      <c r="N27" s="35">
         <v>101</v>
       </c>
-      <c r="Q27" s="154" t="s">
+      <c r="Q27" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="R27" s="153">
+      <c r="R27" s="115">
         <v>50.5</v>
       </c>
-      <c r="S27" s="152" t="s">
+      <c r="S27" s="114" t="s">
         <v>0</v>
       </c>
       <c r="T27" s="5" t="s">
@@ -3821,48 +3787,48 @@
       <c r="Y27" s="3"/>
     </row>
     <row r="28" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="32"/>
-      <c r="C28" s="31">
+      <c r="B28" s="133"/>
+      <c r="C28" s="30">
         <v>4</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="30">
         <v>4</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="27">
         <v>7</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="26">
         <v>7.5</v>
       </c>
       <c r="I28" s="12"/>
-      <c r="J28" s="94">
+      <c r="J28" s="85">
         <v>84</v>
       </c>
-      <c r="K28" s="25">
+      <c r="K28" s="24">
         <v>2.5</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="23">
         <v>3</v>
       </c>
-      <c r="M28" s="23">
+      <c r="M28" s="22">
         <v>11.5</v>
       </c>
-      <c r="N28" s="22">
+      <c r="N28" s="21">
         <v>101</v>
       </c>
-      <c r="Q28" s="50" t="s">
+      <c r="Q28" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="R28" s="49">
+      <c r="R28" s="46">
         <v>50.5</v>
       </c>
-      <c r="S28" s="48" t="s">
+      <c r="S28" s="45" t="s">
         <v>0</v>
       </c>
       <c r="T28" s="5" t="s">
@@ -3878,7 +3844,7 @@
       <c r="Y28" s="3"/>
     </row>
     <row r="29" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="18"/>
+      <c r="B29" s="134"/>
       <c r="C29" s="17">
         <v>4</v>
       </c>
@@ -3896,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="12"/>
-      <c r="J29" s="93" t="s">
+      <c r="J29" s="84" t="s">
         <v>0</v>
       </c>
       <c r="K29" s="10" t="s">
@@ -3911,13 +3877,13 @@
       <c r="N29" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q29" s="154" t="s">
-        <v>0</v>
-      </c>
-      <c r="R29" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="S29" s="152" t="s">
+      <c r="Q29" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="R29" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="S29" s="114" t="s">
         <v>0</v>
       </c>
       <c r="T29" s="5" t="s">
@@ -3933,50 +3899,50 @@
       <c r="Y29" s="3"/>
     </row>
     <row r="30" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="47">
+      <c r="B30" s="132">
         <v>5</v>
       </c>
-      <c r="C30" s="46">
+      <c r="C30" s="44">
         <v>5</v>
       </c>
-      <c r="D30" s="46">
+      <c r="D30" s="44">
         <v>5</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="44" t="s">
+      <c r="F30" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="43">
+      <c r="G30" s="41">
         <v>10</v>
       </c>
-      <c r="H30" s="42">
+      <c r="H30" s="40">
         <v>7.5</v>
       </c>
       <c r="I30" s="12"/>
-      <c r="J30" s="95">
+      <c r="J30" s="86">
         <v>72</v>
       </c>
-      <c r="K30" s="40">
+      <c r="K30" s="38">
         <v>3.5</v>
       </c>
-      <c r="L30" s="39">
+      <c r="L30" s="37">
         <v>3</v>
       </c>
-      <c r="M30" s="38">
+      <c r="M30" s="36">
         <v>3</v>
       </c>
-      <c r="N30" s="37">
+      <c r="N30" s="35">
         <v>81.5</v>
       </c>
-      <c r="Q30" s="50" t="s">
+      <c r="Q30" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="R30" s="49">
+      <c r="R30" s="46">
         <v>40.75</v>
       </c>
-      <c r="S30" s="48" t="s">
+      <c r="S30" s="45" t="s">
         <v>0</v>
       </c>
       <c r="T30" s="5" t="s">
@@ -3992,48 +3958,48 @@
       <c r="Y30" s="3"/>
     </row>
     <row r="31" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="32"/>
-      <c r="C31" s="31">
+      <c r="B31" s="133"/>
+      <c r="C31" s="30">
         <v>5</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="30">
         <v>5</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="27">
         <v>53</v>
       </c>
-      <c r="H31" s="27">
+      <c r="H31" s="26">
         <v>1</v>
       </c>
       <c r="I31" s="12"/>
-      <c r="J31" s="94">
+      <c r="J31" s="85">
         <v>72</v>
       </c>
-      <c r="K31" s="25">
+      <c r="K31" s="24">
         <v>3.5</v>
       </c>
-      <c r="L31" s="24">
+      <c r="L31" s="23">
         <v>3</v>
       </c>
-      <c r="M31" s="23">
+      <c r="M31" s="22">
         <v>3</v>
       </c>
-      <c r="N31" s="22">
+      <c r="N31" s="21">
         <v>81.5</v>
       </c>
-      <c r="Q31" s="154" t="s">
+      <c r="Q31" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="R31" s="153">
+      <c r="R31" s="115">
         <v>40.75</v>
       </c>
-      <c r="S31" s="152" t="s">
+      <c r="S31" s="114" t="s">
         <v>0</v>
       </c>
       <c r="T31" s="5" t="s">
@@ -4049,7 +4015,7 @@
       <c r="Y31" s="3"/>
     </row>
     <row r="32" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="18"/>
+      <c r="B32" s="134"/>
       <c r="C32" s="17">
         <v>5</v>
       </c>
@@ -4067,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="12"/>
-      <c r="J32" s="93" t="s">
+      <c r="J32" s="84" t="s">
         <v>0</v>
       </c>
       <c r="K32" s="10" t="s">
@@ -4082,13 +4048,13 @@
       <c r="N32" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q32" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="R32" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="S32" s="48" t="s">
+      <c r="Q32" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="R32" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="S32" s="45" t="s">
         <v>0</v>
       </c>
       <c r="T32" s="5" t="s">
@@ -4104,50 +4070,50 @@
       <c r="Y32" s="3"/>
     </row>
     <row r="33" spans="2:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="47">
+      <c r="B33" s="132">
         <v>6</v>
       </c>
-      <c r="C33" s="46">
+      <c r="C33" s="44">
         <v>6</v>
       </c>
-      <c r="D33" s="46">
+      <c r="D33" s="44">
         <v>6</v>
       </c>
-      <c r="E33" s="45" t="s">
+      <c r="E33" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="44" t="s">
+      <c r="F33" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="43">
+      <c r="G33" s="41">
         <v>161</v>
       </c>
-      <c r="H33" s="42">
+      <c r="H33" s="40">
         <v>0.5</v>
       </c>
       <c r="I33" s="12"/>
-      <c r="J33" s="95">
+      <c r="J33" s="86">
         <v>60</v>
       </c>
-      <c r="K33" s="40">
+      <c r="K33" s="38">
         <v>2.5</v>
       </c>
-      <c r="L33" s="39">
+      <c r="L33" s="37">
         <v>1</v>
       </c>
-      <c r="M33" s="38">
-        <v>0</v>
-      </c>
-      <c r="N33" s="37">
+      <c r="M33" s="36">
+        <v>0</v>
+      </c>
+      <c r="N33" s="35">
         <v>63.5</v>
       </c>
-      <c r="Q33" s="154" t="s">
+      <c r="Q33" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="R33" s="153">
+      <c r="R33" s="115">
         <v>31.75</v>
       </c>
-      <c r="S33" s="152" t="s">
+      <c r="S33" s="114" t="s">
         <v>0</v>
       </c>
       <c r="T33" s="5" t="s">
@@ -4163,48 +4129,48 @@
       <c r="Y33" s="3"/>
     </row>
     <row r="34" spans="2:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="32"/>
-      <c r="C34" s="31">
+      <c r="B34" s="133"/>
+      <c r="C34" s="30">
         <v>6</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D34" s="30">
         <v>6</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F34" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="28">
+      <c r="G34" s="27">
         <v>44</v>
       </c>
-      <c r="H34" s="27">
+      <c r="H34" s="26">
         <v>2.5</v>
       </c>
       <c r="I34" s="12"/>
-      <c r="J34" s="94">
+      <c r="J34" s="85">
         <v>60</v>
       </c>
-      <c r="K34" s="25">
+      <c r="K34" s="24">
         <v>2.5</v>
       </c>
-      <c r="L34" s="24">
+      <c r="L34" s="23">
         <v>1</v>
       </c>
-      <c r="M34" s="23">
-        <v>0</v>
-      </c>
-      <c r="N34" s="22">
+      <c r="M34" s="22">
+        <v>0</v>
+      </c>
+      <c r="N34" s="21">
         <v>63.5</v>
       </c>
-      <c r="Q34" s="50" t="s">
+      <c r="Q34" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="R34" s="49">
+      <c r="R34" s="46">
         <v>31.75</v>
       </c>
-      <c r="S34" s="48" t="s">
+      <c r="S34" s="45" t="s">
         <v>0</v>
       </c>
       <c r="T34" s="5" t="s">
@@ -4220,7 +4186,7 @@
       <c r="Y34" s="3"/>
     </row>
     <row r="35" spans="2:27" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="18"/>
+      <c r="B35" s="134"/>
       <c r="C35" s="17">
         <v>6</v>
       </c>
@@ -4238,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="12"/>
-      <c r="J35" s="93" t="s">
+      <c r="J35" s="84" t="s">
         <v>0</v>
       </c>
       <c r="K35" s="10" t="s">
@@ -4253,13 +4219,13 @@
       <c r="N35" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q35" s="154" t="s">
-        <v>0</v>
-      </c>
-      <c r="R35" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="S35" s="152" t="s">
+      <c r="Q35" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="R35" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="S35" s="114" t="s">
         <v>0</v>
       </c>
       <c r="T35" s="5" t="s">
@@ -4275,49 +4241,49 @@
       <c r="Y35" s="3"/>
     </row>
     <row r="36" spans="2:27" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="92"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="86"/>
-      <c r="N36" s="85"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="77"/>
+      <c r="N36" s="76"/>
       <c r="S36" s="1"/>
       <c r="T36" s="5"/>
       <c r="W36" s="4"/>
       <c r="Y36" s="3"/>
     </row>
     <row r="37" spans="2:27" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="84" t="s">
+      <c r="B37" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="82" t="s">
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="G37" s="81"/>
-      <c r="H37" s="80" t="s">
+      <c r="G37" s="72"/>
+      <c r="H37" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="I37" s="79"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="77"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="65"/>
-      <c r="Q37" s="76"/>
-      <c r="R37" s="75"/>
-      <c r="S37" s="74"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="135"/>
+      <c r="R37" s="136"/>
+      <c r="S37" s="137"/>
       <c r="T37" s="5">
         <v>5</v>
       </c>
@@ -4325,147 +4291,147 @@
       <c r="Y37" s="3"/>
     </row>
     <row r="38" spans="2:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="149" t="s">
+      <c r="B38" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="151" t="s">
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="148" t="s">
+      <c r="F38" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="148" t="s">
+      <c r="G38" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="H38" s="150" t="s">
+      <c r="H38" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="I38" s="109"/>
-      <c r="J38" s="149" t="s">
+      <c r="I38" s="100"/>
+      <c r="J38" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="K38" s="148" t="s">
+      <c r="K38" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="L38" s="148" t="s">
+      <c r="L38" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="M38" s="148" t="s">
-        <v>0</v>
-      </c>
-      <c r="N38" s="147" t="s">
+      <c r="M38" s="162" t="s">
+        <v>0</v>
+      </c>
+      <c r="N38" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="O38" s="66"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="146" t="s">
+      <c r="O38" s="60"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="R38" s="145"/>
-      <c r="S38" s="144"/>
+      <c r="R38" s="148"/>
+      <c r="S38" s="149"/>
       <c r="W38" s="4"/>
       <c r="Y38" s="3"/>
     </row>
     <row r="39" spans="2:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="141"/>
-      <c r="C39" s="143"/>
-      <c r="D39" s="143"/>
-      <c r="E39" s="140"/>
-      <c r="F39" s="142"/>
-      <c r="G39" s="140"/>
-      <c r="H39" s="137"/>
-      <c r="I39" s="109"/>
-      <c r="J39" s="141"/>
-      <c r="K39" s="140" t="s">
+      <c r="B39" s="157"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="160"/>
+      <c r="F39" s="163"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="145"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="157"/>
+      <c r="K39" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="L39" s="139"/>
-      <c r="M39" s="138"/>
-      <c r="N39" s="137"/>
-      <c r="O39" s="66"/>
-      <c r="P39" s="65"/>
-      <c r="Q39" s="136"/>
-      <c r="R39" s="135"/>
-      <c r="S39" s="134"/>
+      <c r="L39" s="166"/>
+      <c r="M39" s="168"/>
+      <c r="N39" s="145"/>
+      <c r="O39" s="60"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="150"/>
+      <c r="R39" s="151"/>
+      <c r="S39" s="152"/>
       <c r="T39" s="5"/>
       <c r="W39" s="4"/>
       <c r="Y39" s="3"/>
     </row>
     <row r="40" spans="2:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="141"/>
-      <c r="C40" s="143"/>
-      <c r="D40" s="143"/>
-      <c r="E40" s="140"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="140"/>
-      <c r="H40" s="137"/>
-      <c r="I40" s="109"/>
-      <c r="J40" s="141"/>
-      <c r="K40" s="140" t="s">
+      <c r="B40" s="157"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="160"/>
+      <c r="F40" s="163"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="145"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="157"/>
+      <c r="K40" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="L40" s="139"/>
-      <c r="M40" s="138"/>
-      <c r="N40" s="137"/>
-      <c r="O40" s="66"/>
-      <c r="P40" s="65"/>
-      <c r="Q40" s="136"/>
-      <c r="R40" s="135"/>
-      <c r="S40" s="134"/>
+      <c r="L40" s="166"/>
+      <c r="M40" s="168"/>
+      <c r="N40" s="145"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="150"/>
+      <c r="R40" s="151"/>
+      <c r="S40" s="152"/>
       <c r="T40" s="5"/>
       <c r="W40" s="4"/>
       <c r="Y40" s="3"/>
     </row>
     <row r="41" spans="2:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="131"/>
-      <c r="C41" s="133"/>
-      <c r="D41" s="133"/>
-      <c r="E41" s="130"/>
-      <c r="F41" s="132"/>
-      <c r="G41" s="130"/>
-      <c r="H41" s="127"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="131"/>
-      <c r="K41" s="130" t="s">
+      <c r="B41" s="158"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="161"/>
+      <c r="F41" s="164"/>
+      <c r="G41" s="161"/>
+      <c r="H41" s="146"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="158"/>
+      <c r="K41" s="161" t="s">
         <v>49</v>
       </c>
-      <c r="L41" s="129"/>
-      <c r="M41" s="128"/>
-      <c r="N41" s="127"/>
-      <c r="Q41" s="126"/>
-      <c r="R41" s="125"/>
-      <c r="S41" s="124"/>
+      <c r="L41" s="167"/>
+      <c r="M41" s="169"/>
+      <c r="N41" s="146"/>
+      <c r="Q41" s="153"/>
+      <c r="R41" s="154"/>
+      <c r="S41" s="155"/>
       <c r="T41" s="5"/>
       <c r="W41" s="4"/>
       <c r="Y41" s="3"/>
     </row>
     <row r="42" spans="2:27" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="108"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="106"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="54"/>
-      <c r="Q42" s="103" t="s">
+      <c r="B42" s="99"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="51"/>
+      <c r="Q42" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="R42" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="S42" s="101" t="s">
+      <c r="R42" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="S42" s="92" t="s">
         <v>1</v>
       </c>
       <c r="T42" s="5"/>
-      <c r="W42" s="123" t="s">
+      <c r="W42" s="111" t="s">
         <v>50</v>
       </c>
       <c r="Y42" s="3" t="s">
@@ -4473,56 +4439,56 @@
       </c>
     </row>
     <row r="43" spans="2:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="47">
+      <c r="B43" s="132">
         <v>1</v>
       </c>
-      <c r="C43" s="46">
+      <c r="C43" s="44">
         <v>1</v>
       </c>
-      <c r="D43" s="112">
-        <v>0</v>
-      </c>
-      <c r="E43" s="45" t="s">
+      <c r="D43" s="103">
+        <v>0</v>
+      </c>
+      <c r="E43" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F43" s="44" t="s">
+      <c r="F43" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="43">
+      <c r="G43" s="41">
         <v>8</v>
       </c>
-      <c r="H43" s="42">
+      <c r="H43" s="40">
         <v>7.5</v>
       </c>
       <c r="I43" s="12"/>
-      <c r="J43" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="K43" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="L43" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M43" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="N43" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="R43" s="49">
-        <v>0</v>
-      </c>
-      <c r="S43" s="48" t="s">
+      <c r="J43" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="K43" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L43" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="M43" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N43" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="R43" s="46">
+        <v>0</v>
+      </c>
+      <c r="S43" s="45" t="s">
         <v>0</v>
       </c>
       <c r="T43" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U43" s="33">
+      <c r="U43" s="31">
         <v>17.5</v>
       </c>
       <c r="V43" s="4" t="s">
@@ -4536,48 +4502,48 @@
       </c>
     </row>
     <row r="44" spans="2:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="32"/>
-      <c r="C44" s="31">
+      <c r="B44" s="133"/>
+      <c r="C44" s="30">
         <v>1</v>
       </c>
-      <c r="D44" s="111">
-        <v>0</v>
-      </c>
-      <c r="E44" s="30" t="s">
+      <c r="D44" s="102">
+        <v>0</v>
+      </c>
+      <c r="E44" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="29" t="s">
+      <c r="F44" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="28">
+      <c r="G44" s="27">
         <v>1</v>
       </c>
-      <c r="H44" s="27">
+      <c r="H44" s="26">
         <v>10</v>
       </c>
       <c r="I44" s="12"/>
-      <c r="J44" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="K44" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="L44" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M44" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N44" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="R44" s="35">
-        <v>0</v>
-      </c>
-      <c r="S44" s="34" t="s">
+      <c r="J44" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="K44" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L44" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M44" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N44" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R44" s="33">
+        <v>0</v>
+      </c>
+      <c r="S44" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T44" s="5" t="s">
@@ -4593,12 +4559,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:27" s="65" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="18"/>
+    <row r="45" spans="2:27" s="59" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="134"/>
       <c r="C45" s="17">
         <v>1</v>
       </c>
-      <c r="D45" s="110">
+      <c r="D45" s="101">
         <v>0</v>
       </c>
       <c r="E45" s="16"/>
@@ -4612,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="12"/>
-      <c r="J45" s="93" t="s">
+      <c r="J45" s="84" t="s">
         <v>0</v>
       </c>
       <c r="K45" s="10" t="s">
@@ -4629,13 +4595,13 @@
       </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-      <c r="Q45" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R45" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="S45" s="19" t="s">
+      <c r="Q45" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R45" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S45" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T45" s="5" t="s">
@@ -4648,63 +4614,63 @@
       <c r="W45" s="4">
         <v>3.5</v>
       </c>
-      <c r="X45" s="122"/>
+      <c r="X45" s="110"/>
       <c r="Y45" s="3">
         <v>2</v>
       </c>
-      <c r="AA45" s="121"/>
+      <c r="AA45" s="109"/>
     </row>
     <row r="46" spans="2:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="47">
-        <v>2</v>
-      </c>
-      <c r="C46" s="46">
-        <v>2</v>
-      </c>
-      <c r="D46" s="112">
-        <v>0</v>
-      </c>
-      <c r="E46" s="45" t="s">
+      <c r="B46" s="132">
+        <v>2</v>
+      </c>
+      <c r="C46" s="44">
+        <v>2</v>
+      </c>
+      <c r="D46" s="103">
+        <v>0</v>
+      </c>
+      <c r="E46" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="44" t="s">
+      <c r="F46" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="43">
+      <c r="G46" s="41">
         <v>26</v>
       </c>
-      <c r="H46" s="42">
+      <c r="H46" s="40">
         <v>2.5</v>
       </c>
       <c r="I46" s="12"/>
-      <c r="J46" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="K46" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="L46" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M46" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="N46" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="R46" s="35">
-        <v>0</v>
-      </c>
-      <c r="S46" s="34" t="s">
+      <c r="J46" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="K46" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L46" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="M46" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N46" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R46" s="33">
+        <v>0</v>
+      </c>
+      <c r="S46" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T46" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U46" s="33">
+      <c r="U46" s="31">
         <v>7.5</v>
       </c>
       <c r="V46" s="4" t="s">
@@ -4718,48 +4684,48 @@
       </c>
     </row>
     <row r="47" spans="2:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="32"/>
-      <c r="C47" s="31">
-        <v>2</v>
-      </c>
-      <c r="D47" s="111">
-        <v>0</v>
-      </c>
-      <c r="E47" s="30" t="s">
+      <c r="B47" s="133"/>
+      <c r="C47" s="30">
+        <v>2</v>
+      </c>
+      <c r="D47" s="102">
+        <v>0</v>
+      </c>
+      <c r="E47" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="29" t="s">
+      <c r="F47" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="28">
+      <c r="G47" s="27">
         <v>18</v>
       </c>
-      <c r="H47" s="27">
+      <c r="H47" s="26">
         <v>5</v>
       </c>
       <c r="I47" s="12"/>
-      <c r="J47" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="K47" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="L47" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M47" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N47" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R47" s="20">
-        <v>0</v>
-      </c>
-      <c r="S47" s="19" t="s">
+      <c r="J47" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="K47" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L47" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M47" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N47" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R47" s="19">
+        <v>0</v>
+      </c>
+      <c r="S47" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T47" s="5" t="s">
@@ -4776,11 +4742,11 @@
       </c>
     </row>
     <row r="48" spans="2:27" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="18"/>
+      <c r="B48" s="134"/>
       <c r="C48" s="17">
         <v>2</v>
       </c>
-      <c r="D48" s="110">
+      <c r="D48" s="101">
         <v>0</v>
       </c>
       <c r="E48" s="16"/>
@@ -4794,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="12"/>
-      <c r="J48" s="93" t="s">
+      <c r="J48" s="84" t="s">
         <v>0</v>
       </c>
       <c r="K48" s="10" t="s">
@@ -4809,13 +4775,13 @@
       <c r="N48" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q48" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="R48" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S48" s="34" t="s">
+      <c r="Q48" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R48" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S48" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T48" s="5" t="s">
@@ -4832,56 +4798,56 @@
       </c>
     </row>
     <row r="49" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="47">
+      <c r="B49" s="132">
         <v>3</v>
       </c>
-      <c r="C49" s="46">
+      <c r="C49" s="44">
         <v>3</v>
       </c>
-      <c r="D49" s="112">
-        <v>0</v>
-      </c>
-      <c r="E49" s="45" t="s">
+      <c r="D49" s="103">
+        <v>0</v>
+      </c>
+      <c r="E49" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="F49" s="44" t="s">
+      <c r="F49" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="43">
+      <c r="G49" s="41">
         <v>10</v>
       </c>
-      <c r="H49" s="42">
+      <c r="H49" s="40">
         <v>7.5</v>
       </c>
       <c r="I49" s="12"/>
-      <c r="J49" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="K49" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="L49" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M49" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="N49" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R49" s="20">
-        <v>0</v>
-      </c>
-      <c r="S49" s="19" t="s">
+      <c r="J49" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="K49" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L49" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="M49" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N49" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R49" s="19">
+        <v>0</v>
+      </c>
+      <c r="S49" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T49" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U49" s="33">
+      <c r="U49" s="31">
         <v>8.5</v>
       </c>
       <c r="V49" s="4" t="s">
@@ -4895,48 +4861,48 @@
       </c>
     </row>
     <row r="50" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="32"/>
-      <c r="C50" s="31">
+      <c r="B50" s="133"/>
+      <c r="C50" s="30">
         <v>3</v>
       </c>
-      <c r="D50" s="111">
-        <v>0</v>
-      </c>
-      <c r="E50" s="30" t="s">
+      <c r="D50" s="102">
+        <v>0</v>
+      </c>
+      <c r="E50" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="29" t="s">
+      <c r="F50" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G50" s="28">
+      <c r="G50" s="27">
         <v>53</v>
       </c>
-      <c r="H50" s="27">
+      <c r="H50" s="26">
         <v>1</v>
       </c>
       <c r="I50" s="12"/>
-      <c r="J50" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="K50" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="L50" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M50" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N50" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="R50" s="35">
-        <v>0</v>
-      </c>
-      <c r="S50" s="34" t="s">
+      <c r="J50" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="K50" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L50" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M50" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N50" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R50" s="33">
+        <v>0</v>
+      </c>
+      <c r="S50" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T50" s="5" t="s">
@@ -4953,11 +4919,11 @@
       </c>
     </row>
     <row r="51" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="18"/>
+      <c r="B51" s="134"/>
       <c r="C51" s="17">
         <v>3</v>
       </c>
-      <c r="D51" s="110">
+      <c r="D51" s="101">
         <v>0</v>
       </c>
       <c r="E51" s="16"/>
@@ -4971,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="12"/>
-      <c r="J51" s="93" t="s">
+      <c r="J51" s="84" t="s">
         <v>0</v>
       </c>
       <c r="K51" s="10" t="s">
@@ -4986,13 +4952,13 @@
       <c r="N51" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q51" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R51" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="S51" s="19" t="s">
+      <c r="Q51" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R51" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S51" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T51" s="5" t="s">
@@ -5009,56 +4975,56 @@
       </c>
     </row>
     <row r="52" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="47">
+      <c r="B52" s="132">
         <v>4</v>
       </c>
-      <c r="C52" s="46">
+      <c r="C52" s="44">
         <v>4</v>
       </c>
-      <c r="D52" s="112">
+      <c r="D52" s="103">
         <v>7</v>
       </c>
-      <c r="E52" s="45" t="s">
+      <c r="E52" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="44" t="s">
+      <c r="F52" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="43">
+      <c r="G52" s="41">
         <v>177</v>
       </c>
-      <c r="H52" s="42">
+      <c r="H52" s="40">
         <v>0.5</v>
       </c>
       <c r="I52" s="12"/>
-      <c r="J52" s="95">
+      <c r="J52" s="86">
         <v>51</v>
       </c>
-      <c r="K52" s="40">
+      <c r="K52" s="38">
         <v>0.5</v>
       </c>
-      <c r="L52" s="39">
+      <c r="L52" s="37">
         <v>3</v>
       </c>
-      <c r="M52" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="N52" s="37">
+      <c r="M52" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N52" s="35">
         <v>54.5</v>
       </c>
-      <c r="Q52" s="36" t="s">
+      <c r="Q52" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="R52" s="35">
+      <c r="R52" s="33">
         <v>27.25</v>
       </c>
-      <c r="S52" s="34" t="s">
+      <c r="S52" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T52" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="U52" s="33">
+      <c r="U52" s="31">
         <v>3</v>
       </c>
       <c r="V52" s="4" t="s">
@@ -5072,48 +5038,48 @@
       </c>
     </row>
     <row r="53" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="32"/>
-      <c r="C53" s="31">
+      <c r="B53" s="133"/>
+      <c r="C53" s="30">
         <v>4</v>
       </c>
-      <c r="D53" s="111">
+      <c r="D53" s="102">
         <v>7</v>
       </c>
-      <c r="E53" s="30" t="s">
+      <c r="E53" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F53" s="29" t="s">
+      <c r="F53" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="28">
+      <c r="G53" s="27">
         <v>32</v>
       </c>
-      <c r="H53" s="27">
+      <c r="H53" s="26">
         <v>2.5</v>
       </c>
       <c r="I53" s="12"/>
-      <c r="J53" s="94">
+      <c r="J53" s="85">
         <v>51</v>
       </c>
-      <c r="K53" s="25">
+      <c r="K53" s="24">
         <v>0.5</v>
       </c>
-      <c r="L53" s="24">
+      <c r="L53" s="23">
         <v>3</v>
       </c>
-      <c r="M53" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N53" s="22">
+      <c r="M53" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N53" s="21">
         <v>54.5</v>
       </c>
-      <c r="Q53" s="21" t="s">
+      <c r="Q53" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="R53" s="20">
+      <c r="R53" s="19">
         <v>27.25</v>
       </c>
-      <c r="S53" s="19" t="s">
+      <c r="S53" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T53" s="5" t="s">
@@ -5130,11 +5096,11 @@
       </c>
     </row>
     <row r="54" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="18"/>
+      <c r="B54" s="134"/>
       <c r="C54" s="17">
         <v>4</v>
       </c>
-      <c r="D54" s="110">
+      <c r="D54" s="101">
         <v>7</v>
       </c>
       <c r="E54" s="16"/>
@@ -5148,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="12"/>
-      <c r="J54" s="93" t="s">
+      <c r="J54" s="84" t="s">
         <v>0</v>
       </c>
       <c r="K54" s="10" t="s">
@@ -5163,13 +5129,13 @@
       <c r="N54" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q54" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="R54" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S54" s="34" t="s">
+      <c r="Q54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R54" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S54" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T54" s="5" t="s">
@@ -5186,56 +5152,56 @@
       </c>
     </row>
     <row r="55" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="47">
+      <c r="B55" s="132">
         <v>5</v>
       </c>
-      <c r="C55" s="46">
+      <c r="C55" s="44">
         <v>5</v>
       </c>
-      <c r="D55" s="112">
+      <c r="D55" s="103">
         <v>9</v>
       </c>
-      <c r="E55" s="45" t="s">
+      <c r="E55" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F55" s="44" t="s">
+      <c r="F55" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G55" s="43">
+      <c r="G55" s="41">
         <v>108</v>
       </c>
-      <c r="H55" s="42">
+      <c r="H55" s="40">
         <v>0.5</v>
       </c>
       <c r="I55" s="12"/>
-      <c r="J55" s="95">
+      <c r="J55" s="86">
         <v>39</v>
       </c>
-      <c r="K55" s="40">
-        <v>0</v>
-      </c>
-      <c r="L55" s="39">
+      <c r="K55" s="38">
+        <v>0</v>
+      </c>
+      <c r="L55" s="37">
         <v>3</v>
       </c>
-      <c r="M55" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="N55" s="37">
+      <c r="M55" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N55" s="35">
         <v>42</v>
       </c>
-      <c r="Q55" s="21" t="s">
+      <c r="Q55" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="R55" s="20">
+      <c r="R55" s="19">
         <v>21</v>
       </c>
-      <c r="S55" s="19" t="s">
+      <c r="S55" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T55" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="U55" s="33">
+      <c r="U55" s="31">
         <v>0.5</v>
       </c>
       <c r="V55" s="4" t="s">
@@ -5249,48 +5215,48 @@
       </c>
     </row>
     <row r="56" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="32"/>
-      <c r="C56" s="31">
+      <c r="B56" s="133"/>
+      <c r="C56" s="30">
         <v>5</v>
       </c>
-      <c r="D56" s="111">
+      <c r="D56" s="102">
         <v>9</v>
       </c>
-      <c r="E56" s="30" t="s">
+      <c r="E56" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F56" s="29" t="s">
+      <c r="F56" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="28">
+      <c r="G56" s="27">
         <v>226</v>
       </c>
-      <c r="H56" s="27">
+      <c r="H56" s="26">
         <v>0</v>
       </c>
       <c r="I56" s="12"/>
-      <c r="J56" s="94">
+      <c r="J56" s="85">
         <v>39</v>
       </c>
-      <c r="K56" s="25">
-        <v>0</v>
-      </c>
-      <c r="L56" s="24">
+      <c r="K56" s="24">
+        <v>0</v>
+      </c>
+      <c r="L56" s="23">
         <v>3</v>
       </c>
-      <c r="M56" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N56" s="22">
+      <c r="M56" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N56" s="21">
         <v>42</v>
       </c>
-      <c r="Q56" s="36" t="s">
+      <c r="Q56" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="R56" s="35">
+      <c r="R56" s="33">
         <v>21</v>
       </c>
-      <c r="S56" s="34" t="s">
+      <c r="S56" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T56" s="5" t="s">
@@ -5307,11 +5273,11 @@
       </c>
     </row>
     <row r="57" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="18"/>
+      <c r="B57" s="134"/>
       <c r="C57" s="17">
         <v>5</v>
       </c>
-      <c r="D57" s="110">
+      <c r="D57" s="101">
         <v>9</v>
       </c>
       <c r="E57" s="16"/>
@@ -5325,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="12"/>
-      <c r="J57" s="93" t="s">
+      <c r="J57" s="84" t="s">
         <v>0</v>
       </c>
       <c r="K57" s="10" t="s">
@@ -5340,13 +5306,13 @@
       <c r="N57" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q57" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R57" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="S57" s="19" t="s">
+      <c r="Q57" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R57" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S57" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T57" s="5" t="s">
@@ -5363,54 +5329,54 @@
       </c>
     </row>
     <row r="58" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="100"/>
-      <c r="C58" s="100"/>
-      <c r="D58" s="100"/>
-      <c r="E58" s="98"/>
-      <c r="F58" s="99"/>
-      <c r="G58" s="90"/>
-      <c r="H58" s="89"/>
-      <c r="I58" s="87"/>
-      <c r="J58" s="99"/>
-      <c r="K58" s="98"/>
-      <c r="L58" s="98"/>
-      <c r="M58" s="98"/>
-      <c r="N58" s="98"/>
-      <c r="O58" s="97"/>
-      <c r="P58" s="96"/>
-      <c r="Q58" s="96"/>
-      <c r="R58" s="96"/>
-      <c r="S58" s="96"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="91"/>
+      <c r="E58" s="89"/>
+      <c r="F58" s="90"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="80"/>
+      <c r="I58" s="78"/>
+      <c r="J58" s="90"/>
+      <c r="K58" s="89"/>
+      <c r="L58" s="89"/>
+      <c r="M58" s="89"/>
+      <c r="N58" s="89"/>
+      <c r="O58" s="88"/>
+      <c r="P58" s="87"/>
+      <c r="Q58" s="87"/>
+      <c r="R58" s="87"/>
+      <c r="S58" s="87"/>
       <c r="T58" s="5"/>
       <c r="W58" s="4"/>
       <c r="Y58" s="3"/>
     </row>
     <row r="59" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="96"/>
-      <c r="B59" s="84" t="s">
+      <c r="A59" s="87"/>
+      <c r="B59" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="83"/>
-      <c r="D59" s="83"/>
-      <c r="E59" s="81"/>
-      <c r="F59" s="82" t="s">
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="G59" s="81"/>
-      <c r="H59" s="80" t="s">
+      <c r="G59" s="72"/>
+      <c r="H59" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="I59" s="79"/>
-      <c r="J59" s="78"/>
-      <c r="K59" s="78"/>
-      <c r="L59" s="78"/>
-      <c r="M59" s="78"/>
-      <c r="N59" s="77"/>
-      <c r="O59" s="66"/>
-      <c r="P59" s="65"/>
-      <c r="Q59" s="76"/>
-      <c r="R59" s="75"/>
-      <c r="S59" s="74"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="69"/>
+      <c r="L59" s="69"/>
+      <c r="M59" s="69"/>
+      <c r="N59" s="68"/>
+      <c r="O59" s="60"/>
+      <c r="P59" s="59"/>
+      <c r="Q59" s="135"/>
+      <c r="R59" s="136"/>
+      <c r="S59" s="137"/>
       <c r="T59" s="5">
         <v>5</v>
       </c>
@@ -5418,71 +5384,71 @@
       <c r="Y59" s="3"/>
     </row>
     <row r="60" spans="1:25" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="96"/>
-      <c r="B60" s="69" t="s">
+      <c r="A60" s="87"/>
+      <c r="B60" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="120"/>
-      <c r="D60" s="120"/>
-      <c r="E60" s="72" t="s">
+      <c r="C60" s="108"/>
+      <c r="D60" s="108"/>
+      <c r="E60" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F60" s="68" t="s">
+      <c r="F60" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="G60" s="68" t="s">
+      <c r="G60" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="H60" s="119" t="s">
+      <c r="H60" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="I60" s="58"/>
-      <c r="J60" s="118" t="s">
+      <c r="I60" s="55"/>
+      <c r="J60" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="K60" s="117" t="s">
+      <c r="K60" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="L60" s="117" t="s">
+      <c r="L60" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="M60" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="N60" s="116" t="s">
+      <c r="M60" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="N60" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="Q60" s="115" t="s">
+      <c r="Q60" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="R60" s="114"/>
-      <c r="S60" s="113"/>
+      <c r="R60" s="142"/>
+      <c r="S60" s="143"/>
       <c r="T60" s="5"/>
       <c r="W60" s="4"/>
       <c r="Y60" s="3"/>
     </row>
     <row r="61" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="96"/>
-      <c r="B61" s="108"/>
-      <c r="C61" s="107"/>
-      <c r="D61" s="107"/>
-      <c r="E61" s="106"/>
-      <c r="F61" s="105"/>
-      <c r="G61" s="105"/>
-      <c r="H61" s="104"/>
-      <c r="I61" s="58"/>
-      <c r="J61" s="57"/>
-      <c r="K61" s="56"/>
-      <c r="L61" s="55"/>
-      <c r="M61" s="55"/>
-      <c r="N61" s="54"/>
-      <c r="Q61" s="103" t="s">
+      <c r="A61" s="87"/>
+      <c r="B61" s="99"/>
+      <c r="C61" s="98"/>
+      <c r="D61" s="98"/>
+      <c r="E61" s="97"/>
+      <c r="F61" s="96"/>
+      <c r="G61" s="96"/>
+      <c r="H61" s="95"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="52"/>
+      <c r="N61" s="51"/>
+      <c r="Q61" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="R61" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="S61" s="101" t="s">
+      <c r="R61" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="S61" s="92" t="s">
         <v>1</v>
       </c>
       <c r="T61" s="5"/>
@@ -5490,57 +5456,57 @@
       <c r="Y61" s="3"/>
     </row>
     <row r="62" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="96"/>
-      <c r="B62" s="47">
+      <c r="A62" s="87"/>
+      <c r="B62" s="132">
         <v>1</v>
       </c>
-      <c r="C62" s="46">
+      <c r="C62" s="44">
         <v>1</v>
       </c>
-      <c r="D62" s="112">
-        <v>0</v>
-      </c>
-      <c r="E62" s="45" t="s">
+      <c r="D62" s="103">
+        <v>0</v>
+      </c>
+      <c r="E62" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="F62" s="44" t="s">
+      <c r="F62" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G62" s="43">
+      <c r="G62" s="41">
         <v>9</v>
       </c>
-      <c r="H62" s="42">
+      <c r="H62" s="40">
         <v>7.5</v>
       </c>
       <c r="I62" s="12"/>
-      <c r="J62" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="K62" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="L62" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M62" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="N62" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="R62" s="49">
-        <v>0</v>
-      </c>
-      <c r="S62" s="48" t="s">
+      <c r="J62" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="K62" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L62" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="M62" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N62" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="R62" s="46">
+        <v>0</v>
+      </c>
+      <c r="S62" s="45" t="s">
         <v>0</v>
       </c>
       <c r="T62" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U62" s="33">
+      <c r="U62" s="31">
         <v>15</v>
       </c>
       <c r="V62" s="4" t="s">
@@ -5554,49 +5520,49 @@
       </c>
     </row>
     <row r="63" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="96"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="31">
+      <c r="A63" s="87"/>
+      <c r="B63" s="133"/>
+      <c r="C63" s="30">
         <v>1</v>
       </c>
-      <c r="D63" s="111">
-        <v>0</v>
-      </c>
-      <c r="E63" s="30" t="s">
+      <c r="D63" s="102">
+        <v>0</v>
+      </c>
+      <c r="E63" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F63" s="29" t="s">
+      <c r="F63" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G63" s="28">
+      <c r="G63" s="27">
         <v>7</v>
       </c>
-      <c r="H63" s="27">
+      <c r="H63" s="26">
         <v>7.5</v>
       </c>
       <c r="I63" s="12"/>
-      <c r="J63" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="K63" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="L63" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M63" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N63" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="R63" s="35">
-        <v>0</v>
-      </c>
-      <c r="S63" s="34" t="s">
+      <c r="J63" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="K63" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L63" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M63" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N63" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R63" s="33">
+        <v>0</v>
+      </c>
+      <c r="S63" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T63" s="5" t="s">
@@ -5613,12 +5579,12 @@
       </c>
     </row>
     <row r="64" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="96"/>
-      <c r="B64" s="18"/>
+      <c r="A64" s="87"/>
+      <c r="B64" s="134"/>
       <c r="C64" s="17">
         <v>1</v>
       </c>
-      <c r="D64" s="110">
+      <c r="D64" s="101">
         <v>0</v>
       </c>
       <c r="E64" s="16"/>
@@ -5632,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="12"/>
-      <c r="J64" s="93" t="s">
+      <c r="J64" s="84" t="s">
         <v>0</v>
       </c>
       <c r="K64" s="10" t="s">
@@ -5647,13 +5613,13 @@
       <c r="N64" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q64" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R64" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="S64" s="19" t="s">
+      <c r="Q64" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R64" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S64" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T64" s="5" t="s">
@@ -5670,57 +5636,57 @@
       </c>
     </row>
     <row r="65" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="96"/>
-      <c r="B65" s="47">
-        <v>2</v>
-      </c>
-      <c r="C65" s="46">
-        <v>2</v>
-      </c>
-      <c r="D65" s="112">
-        <v>0</v>
-      </c>
-      <c r="E65" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="F65" s="44" t="s">
+      <c r="A65" s="87"/>
+      <c r="B65" s="132">
+        <v>2</v>
+      </c>
+      <c r="C65" s="44">
+        <v>2</v>
+      </c>
+      <c r="D65" s="103">
+        <v>0</v>
+      </c>
+      <c r="E65" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F65" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G65" s="43">
+      <c r="G65" s="41">
         <v>6</v>
       </c>
-      <c r="H65" s="42">
+      <c r="H65" s="40">
         <v>7.5</v>
       </c>
       <c r="I65" s="12"/>
-      <c r="J65" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="K65" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="L65" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M65" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="N65" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="R65" s="35">
-        <v>0</v>
-      </c>
-      <c r="S65" s="34" t="s">
+      <c r="J65" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="K65" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L65" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="M65" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N65" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R65" s="33">
+        <v>0</v>
+      </c>
+      <c r="S65" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T65" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U65" s="33">
+      <c r="U65" s="31">
         <v>12.5</v>
       </c>
       <c r="V65" s="4" t="s">
@@ -5734,49 +5700,49 @@
       </c>
     </row>
     <row r="66" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="96"/>
-      <c r="B66" s="32"/>
-      <c r="C66" s="31">
-        <v>2</v>
-      </c>
-      <c r="D66" s="111">
-        <v>0</v>
-      </c>
-      <c r="E66" s="30" t="s">
+      <c r="A66" s="87"/>
+      <c r="B66" s="133"/>
+      <c r="C66" s="30">
+        <v>2</v>
+      </c>
+      <c r="D66" s="102">
+        <v>0</v>
+      </c>
+      <c r="E66" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F66" s="29" t="s">
+      <c r="F66" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G66" s="28">
+      <c r="G66" s="27">
         <v>14</v>
       </c>
-      <c r="H66" s="27">
+      <c r="H66" s="26">
         <v>5</v>
       </c>
       <c r="I66" s="12"/>
-      <c r="J66" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="K66" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="L66" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M66" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N66" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R66" s="20">
-        <v>0</v>
-      </c>
-      <c r="S66" s="19" t="s">
+      <c r="J66" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="K66" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L66" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M66" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N66" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R66" s="19">
+        <v>0</v>
+      </c>
+      <c r="S66" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T66" s="5" t="s">
@@ -5793,12 +5759,12 @@
       </c>
     </row>
     <row r="67" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="96"/>
-      <c r="B67" s="18"/>
+      <c r="A67" s="87"/>
+      <c r="B67" s="134"/>
       <c r="C67" s="17">
         <v>2</v>
       </c>
-      <c r="D67" s="110">
+      <c r="D67" s="101">
         <v>0</v>
       </c>
       <c r="E67" s="16"/>
@@ -5812,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="12"/>
-      <c r="J67" s="93" t="s">
+      <c r="J67" s="84" t="s">
         <v>0</v>
       </c>
       <c r="K67" s="10" t="s">
@@ -5827,13 +5793,13 @@
       <c r="N67" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q67" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="R67" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S67" s="34" t="s">
+      <c r="Q67" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R67" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S67" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T67" s="5" t="s">
@@ -5850,57 +5816,57 @@
       </c>
     </row>
     <row r="68" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="96"/>
-      <c r="B68" s="47">
+      <c r="A68" s="87"/>
+      <c r="B68" s="132">
         <v>3</v>
       </c>
-      <c r="C68" s="46">
+      <c r="C68" s="44">
         <v>3</v>
       </c>
-      <c r="D68" s="112">
-        <v>0</v>
-      </c>
-      <c r="E68" s="45" t="s">
+      <c r="D68" s="103">
+        <v>0</v>
+      </c>
+      <c r="E68" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="F68" s="44" t="s">
+      <c r="F68" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G68" s="43">
+      <c r="G68" s="41">
         <v>161</v>
       </c>
-      <c r="H68" s="42">
+      <c r="H68" s="40">
         <v>0.5</v>
       </c>
       <c r="I68" s="12"/>
-      <c r="J68" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="K68" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="L68" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M68" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="N68" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R68" s="20">
-        <v>0</v>
-      </c>
-      <c r="S68" s="19" t="s">
+      <c r="J68" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="K68" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L68" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="M68" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N68" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R68" s="19">
+        <v>0</v>
+      </c>
+      <c r="S68" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T68" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U68" s="33">
+      <c r="U68" s="31">
         <v>3</v>
       </c>
       <c r="V68" s="4" t="s">
@@ -5914,49 +5880,49 @@
       </c>
     </row>
     <row r="69" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="96"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="31">
+      <c r="A69" s="87"/>
+      <c r="B69" s="133"/>
+      <c r="C69" s="30">
         <v>3</v>
       </c>
-      <c r="D69" s="111">
-        <v>0</v>
-      </c>
-      <c r="E69" s="30" t="s">
+      <c r="D69" s="102">
+        <v>0</v>
+      </c>
+      <c r="E69" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F69" s="29" t="s">
+      <c r="F69" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G69" s="28">
+      <c r="G69" s="27">
         <v>44</v>
       </c>
-      <c r="H69" s="27">
+      <c r="H69" s="26">
         <v>2.5</v>
       </c>
       <c r="I69" s="12"/>
-      <c r="J69" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="K69" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="L69" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M69" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N69" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="R69" s="35">
-        <v>0</v>
-      </c>
-      <c r="S69" s="34" t="s">
+      <c r="J69" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="K69" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L69" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M69" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N69" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R69" s="33">
+        <v>0</v>
+      </c>
+      <c r="S69" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T69" s="5" t="s">
@@ -5973,12 +5939,12 @@
       </c>
     </row>
     <row r="70" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="96"/>
-      <c r="B70" s="18"/>
+      <c r="A70" s="87"/>
+      <c r="B70" s="134"/>
       <c r="C70" s="17">
         <v>3</v>
       </c>
-      <c r="D70" s="110">
+      <c r="D70" s="101">
         <v>0</v>
       </c>
       <c r="E70" s="16"/>
@@ -5992,7 +5958,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="12"/>
-      <c r="J70" s="93" t="s">
+      <c r="J70" s="84" t="s">
         <v>0</v>
       </c>
       <c r="K70" s="10" t="s">
@@ -6007,13 +5973,13 @@
       <c r="N70" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q70" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R70" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="S70" s="19" t="s">
+      <c r="Q70" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S70" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T70" s="5" t="s">
@@ -6030,57 +5996,57 @@
       </c>
     </row>
     <row r="71" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="96"/>
-      <c r="B71" s="47">
+      <c r="A71" s="87"/>
+      <c r="B71" s="132">
         <v>4</v>
       </c>
-      <c r="C71" s="46">
+      <c r="C71" s="44">
         <v>4</v>
       </c>
-      <c r="D71" s="112">
+      <c r="D71" s="103">
         <v>7</v>
       </c>
-      <c r="E71" s="45" t="s">
+      <c r="E71" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="F71" s="44" t="s">
+      <c r="F71" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G71" s="43">
+      <c r="G71" s="41">
         <v>57</v>
       </c>
-      <c r="H71" s="42">
+      <c r="H71" s="40">
         <v>1</v>
       </c>
       <c r="I71" s="12"/>
-      <c r="J71" s="95">
+      <c r="J71" s="86">
         <v>51</v>
       </c>
-      <c r="K71" s="40">
+      <c r="K71" s="38">
         <v>1</v>
       </c>
-      <c r="L71" s="39">
+      <c r="L71" s="37">
         <v>1</v>
       </c>
-      <c r="M71" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="N71" s="37">
+      <c r="M71" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N71" s="35">
         <v>53</v>
       </c>
-      <c r="Q71" s="36" t="s">
+      <c r="Q71" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="R71" s="35">
+      <c r="R71" s="33">
         <v>26.5</v>
       </c>
-      <c r="S71" s="34">
+      <c r="S71" s="32">
         <v>25.5</v>
       </c>
       <c r="T71" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="U71" s="33">
+      <c r="U71" s="31">
         <v>1.5</v>
       </c>
       <c r="V71" s="4" t="s">
@@ -6094,49 +6060,49 @@
       </c>
     </row>
     <row r="72" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="96"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="31">
+      <c r="A72" s="87"/>
+      <c r="B72" s="133"/>
+      <c r="C72" s="30">
         <v>4</v>
       </c>
-      <c r="D72" s="111">
+      <c r="D72" s="102">
         <v>7</v>
       </c>
-      <c r="E72" s="30" t="s">
+      <c r="E72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F72" s="29" t="s">
+      <c r="F72" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G72" s="28">
+      <c r="G72" s="27">
         <v>133</v>
       </c>
-      <c r="H72" s="27">
+      <c r="H72" s="26">
         <v>0.5</v>
       </c>
       <c r="I72" s="12"/>
-      <c r="J72" s="94">
+      <c r="J72" s="85">
         <v>51</v>
       </c>
-      <c r="K72" s="25">
+      <c r="K72" s="24">
         <v>1</v>
       </c>
-      <c r="L72" s="24">
+      <c r="L72" s="23">
         <v>1</v>
       </c>
-      <c r="M72" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N72" s="22">
+      <c r="M72" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N72" s="21">
         <v>53</v>
       </c>
-      <c r="Q72" s="21" t="s">
+      <c r="Q72" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="R72" s="20">
+      <c r="R72" s="19">
         <v>26.5</v>
       </c>
-      <c r="S72" s="19">
+      <c r="S72" s="18">
         <v>25.5</v>
       </c>
       <c r="T72" s="5" t="s">
@@ -6153,12 +6119,12 @@
       </c>
     </row>
     <row r="73" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="96"/>
-      <c r="B73" s="18"/>
+      <c r="A73" s="87"/>
+      <c r="B73" s="134"/>
       <c r="C73" s="17">
         <v>4</v>
       </c>
-      <c r="D73" s="110">
+      <c r="D73" s="101">
         <v>7</v>
       </c>
       <c r="E73" s="16"/>
@@ -6172,7 +6138,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="12"/>
-      <c r="J73" s="93" t="s">
+      <c r="J73" s="84" t="s">
         <v>0</v>
       </c>
       <c r="K73" s="10" t="s">
@@ -6187,13 +6153,13 @@
       <c r="N73" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q73" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="R73" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S73" s="34" t="s">
+      <c r="Q73" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R73" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S73" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T73" s="5" t="s">
@@ -6210,57 +6176,57 @@
       </c>
     </row>
     <row r="74" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="96"/>
-      <c r="B74" s="47">
+      <c r="A74" s="87"/>
+      <c r="B74" s="132">
         <v>5</v>
       </c>
-      <c r="C74" s="46">
+      <c r="C74" s="44">
         <v>5</v>
       </c>
-      <c r="D74" s="112">
+      <c r="D74" s="103">
         <v>9</v>
       </c>
-      <c r="E74" s="45" t="s">
+      <c r="E74" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="F74" s="44" t="s">
+      <c r="F74" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G74" s="43">
+      <c r="G74" s="41">
         <v>107</v>
       </c>
-      <c r="H74" s="42">
+      <c r="H74" s="40">
         <v>0.5</v>
       </c>
       <c r="I74" s="12"/>
-      <c r="J74" s="95">
+      <c r="J74" s="86">
         <v>39</v>
       </c>
-      <c r="K74" s="40">
-        <v>0</v>
-      </c>
-      <c r="L74" s="39">
+      <c r="K74" s="38">
+        <v>0</v>
+      </c>
+      <c r="L74" s="37">
         <v>1</v>
       </c>
-      <c r="M74" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="N74" s="37">
+      <c r="M74" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N74" s="35">
         <v>40</v>
       </c>
-      <c r="Q74" s="21" t="s">
+      <c r="Q74" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="R74" s="20">
+      <c r="R74" s="19">
         <v>20</v>
       </c>
-      <c r="S74" s="19" t="s">
+      <c r="S74" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T74" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="U74" s="33">
+      <c r="U74" s="31">
         <v>1</v>
       </c>
       <c r="V74" s="4" t="s">
@@ -6274,49 +6240,49 @@
       </c>
     </row>
     <row r="75" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="96"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="31">
+      <c r="A75" s="87"/>
+      <c r="B75" s="133"/>
+      <c r="C75" s="30">
         <v>5</v>
       </c>
-      <c r="D75" s="111">
+      <c r="D75" s="102">
         <v>9</v>
       </c>
-      <c r="E75" s="30" t="s">
+      <c r="E75" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F75" s="29" t="s">
+      <c r="F75" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G75" s="28">
+      <c r="G75" s="27">
         <v>112</v>
       </c>
-      <c r="H75" s="27">
+      <c r="H75" s="26">
         <v>0.5</v>
       </c>
       <c r="I75" s="12"/>
-      <c r="J75" s="94">
+      <c r="J75" s="85">
         <v>39</v>
       </c>
-      <c r="K75" s="25">
-        <v>0</v>
-      </c>
-      <c r="L75" s="24">
+      <c r="K75" s="24">
+        <v>0</v>
+      </c>
+      <c r="L75" s="23">
         <v>1</v>
       </c>
-      <c r="M75" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N75" s="22">
+      <c r="M75" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N75" s="21">
         <v>40</v>
       </c>
-      <c r="Q75" s="36" t="s">
+      <c r="Q75" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="R75" s="35">
+      <c r="R75" s="33">
         <v>20</v>
       </c>
-      <c r="S75" s="34" t="s">
+      <c r="S75" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T75" s="5" t="s">
@@ -6333,12 +6299,12 @@
       </c>
     </row>
     <row r="76" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="96"/>
-      <c r="B76" s="18"/>
+      <c r="A76" s="87"/>
+      <c r="B76" s="134"/>
       <c r="C76" s="17">
         <v>5</v>
       </c>
-      <c r="D76" s="110">
+      <c r="D76" s="101">
         <v>9</v>
       </c>
       <c r="E76" s="16"/>
@@ -6352,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="12"/>
-      <c r="J76" s="93" t="s">
+      <c r="J76" s="84" t="s">
         <v>0</v>
       </c>
       <c r="K76" s="10" t="s">
@@ -6367,13 +6333,13 @@
       <c r="N76" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q76" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R76" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="S76" s="19" t="s">
+      <c r="Q76" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R76" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S76" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T76" s="5" t="s">
@@ -6390,50 +6356,50 @@
       </c>
     </row>
     <row r="77" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="96"/>
-      <c r="B77" s="92"/>
-      <c r="C77" s="92"/>
-      <c r="D77" s="92"/>
-      <c r="E77" s="92"/>
-      <c r="F77" s="91"/>
-      <c r="G77" s="90"/>
-      <c r="H77" s="89"/>
-      <c r="I77" s="88"/>
-      <c r="J77" s="87"/>
-      <c r="K77" s="87"/>
-      <c r="L77" s="87"/>
-      <c r="M77" s="86"/>
-      <c r="N77" s="85"/>
+      <c r="A77" s="87"/>
+      <c r="B77" s="83"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="83"/>
+      <c r="E77" s="83"/>
+      <c r="F77" s="82"/>
+      <c r="G77" s="81"/>
+      <c r="H77" s="80"/>
+      <c r="I77" s="79"/>
+      <c r="J77" s="78"/>
+      <c r="K77" s="78"/>
+      <c r="L77" s="78"/>
+      <c r="M77" s="77"/>
+      <c r="N77" s="76"/>
       <c r="S77" s="1"/>
       <c r="T77" s="5"/>
       <c r="W77" s="4"/>
       <c r="Y77" s="3"/>
     </row>
     <row r="78" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="84" t="s">
+      <c r="B78" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C78" s="83"/>
-      <c r="D78" s="83"/>
-      <c r="E78" s="81"/>
-      <c r="F78" s="82" t="s">
+      <c r="C78" s="74"/>
+      <c r="D78" s="74"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="G78" s="81"/>
-      <c r="H78" s="80" t="s">
+      <c r="G78" s="72"/>
+      <c r="H78" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="I78" s="79"/>
-      <c r="J78" s="78"/>
-      <c r="K78" s="78"/>
-      <c r="L78" s="78"/>
-      <c r="M78" s="78"/>
-      <c r="N78" s="77"/>
-      <c r="O78" s="66"/>
-      <c r="P78" s="65"/>
-      <c r="Q78" s="76"/>
-      <c r="R78" s="75"/>
-      <c r="S78" s="74"/>
+      <c r="I78" s="70"/>
+      <c r="J78" s="69"/>
+      <c r="K78" s="69"/>
+      <c r="L78" s="69"/>
+      <c r="M78" s="69"/>
+      <c r="N78" s="68"/>
+      <c r="O78" s="60"/>
+      <c r="P78" s="59"/>
+      <c r="Q78" s="135"/>
+      <c r="R78" s="136"/>
+      <c r="S78" s="137"/>
       <c r="T78" s="5">
         <v>7</v>
       </c>
@@ -6441,71 +6407,71 @@
       <c r="Y78" s="3"/>
     </row>
     <row r="79" spans="1:25" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="73" t="s">
+      <c r="B79" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="73"/>
-      <c r="D79" s="73"/>
-      <c r="E79" s="72" t="s">
+      <c r="C79" s="67"/>
+      <c r="D79" s="67"/>
+      <c r="E79" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F79" s="71" t="s">
+      <c r="F79" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="G79" s="71" t="s">
+      <c r="G79" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="H79" s="71" t="s">
+      <c r="H79" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I79" s="70"/>
-      <c r="J79" s="69" t="s">
+      <c r="I79" s="64"/>
+      <c r="J79" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="K79" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="L79" s="68" t="s">
+      <c r="K79" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="L79" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="M79" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="N79" s="67" t="s">
+      <c r="M79" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="N79" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="O79" s="66"/>
-      <c r="P79" s="65"/>
-      <c r="Q79" s="64" t="s">
+      <c r="O79" s="60"/>
+      <c r="P79" s="59"/>
+      <c r="Q79" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="R79" s="63"/>
-      <c r="S79" s="62"/>
+      <c r="R79" s="139"/>
+      <c r="S79" s="140"/>
       <c r="T79" s="5"/>
       <c r="W79" s="4"/>
       <c r="Y79" s="3"/>
     </row>
     <row r="80" spans="1:25" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="57"/>
-      <c r="C80" s="61"/>
-      <c r="D80" s="61"/>
-      <c r="E80" s="60"/>
-      <c r="F80" s="56"/>
-      <c r="G80" s="56"/>
-      <c r="H80" s="59"/>
-      <c r="I80" s="58"/>
-      <c r="J80" s="57"/>
-      <c r="K80" s="56"/>
-      <c r="L80" s="55"/>
-      <c r="M80" s="55"/>
-      <c r="N80" s="54"/>
-      <c r="Q80" s="53" t="s">
+      <c r="B80" s="54"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="58"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="55"/>
+      <c r="J80" s="54"/>
+      <c r="K80" s="53"/>
+      <c r="L80" s="52"/>
+      <c r="M80" s="52"/>
+      <c r="N80" s="51"/>
+      <c r="Q80" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="R80" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="S80" s="51" t="s">
+      <c r="R80" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="S80" s="48" t="s">
         <v>1</v>
       </c>
       <c r="T80" s="5"/>
@@ -6517,56 +6483,56 @@
       </c>
     </row>
     <row r="81" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B81" s="47">
+      <c r="B81" s="132">
         <v>1</v>
       </c>
-      <c r="C81" s="46">
+      <c r="C81" s="44">
         <v>1</v>
       </c>
-      <c r="D81" s="46">
-        <v>0</v>
-      </c>
-      <c r="E81" s="45" t="s">
+      <c r="D81" s="44">
+        <v>0</v>
+      </c>
+      <c r="E81" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F81" s="44" t="s">
+      <c r="F81" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G81" s="43">
+      <c r="G81" s="41">
         <v>8</v>
       </c>
-      <c r="H81" s="42">
+      <c r="H81" s="40">
         <v>7.5</v>
       </c>
       <c r="I81" s="12"/>
-      <c r="J81" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="K81" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="L81" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M81" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="N81" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="R81" s="49">
-        <v>0</v>
-      </c>
-      <c r="S81" s="48" t="s">
+      <c r="J81" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="K81" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L81" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="M81" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N81" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="R81" s="46">
+        <v>0</v>
+      </c>
+      <c r="S81" s="45" t="s">
         <v>0</v>
       </c>
       <c r="T81" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U81" s="33">
+      <c r="U81" s="31">
         <v>17.5</v>
       </c>
       <c r="V81" s="4" t="s">
@@ -6580,48 +6546,48 @@
       </c>
     </row>
     <row r="82" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B82" s="32"/>
-      <c r="C82" s="31">
+      <c r="B82" s="133"/>
+      <c r="C82" s="30">
         <v>1</v>
       </c>
-      <c r="D82" s="31">
-        <v>0</v>
-      </c>
-      <c r="E82" s="30" t="s">
+      <c r="D82" s="30">
+        <v>0</v>
+      </c>
+      <c r="E82" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F82" s="29" t="s">
+      <c r="F82" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G82" s="28">
+      <c r="G82" s="27">
         <v>1</v>
       </c>
-      <c r="H82" s="27">
+      <c r="H82" s="26">
         <v>10</v>
       </c>
       <c r="I82" s="12"/>
-      <c r="J82" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K82" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="L82" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M82" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N82" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="R82" s="35">
-        <v>0</v>
-      </c>
-      <c r="S82" s="34" t="s">
+      <c r="J82" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K82" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L82" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M82" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N82" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R82" s="33">
+        <v>0</v>
+      </c>
+      <c r="S82" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T82" s="5" t="s">
@@ -6638,7 +6604,7 @@
       </c>
     </row>
     <row r="83" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="18"/>
+      <c r="B83" s="134"/>
       <c r="C83" s="17">
         <v>1</v>
       </c>
@@ -6671,13 +6637,13 @@
       <c r="N83" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q83" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R83" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="S83" s="19" t="s">
+      <c r="Q83" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R83" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S83" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T83" s="5" t="s">
@@ -6694,56 +6660,56 @@
       </c>
     </row>
     <row r="84" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B84" s="47">
-        <v>2</v>
-      </c>
-      <c r="C84" s="46">
-        <v>2</v>
-      </c>
-      <c r="D84" s="46">
-        <v>0</v>
-      </c>
-      <c r="E84" s="45" t="s">
+      <c r="B84" s="132">
+        <v>2</v>
+      </c>
+      <c r="C84" s="44">
+        <v>2</v>
+      </c>
+      <c r="D84" s="44">
+        <v>0</v>
+      </c>
+      <c r="E84" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="F84" s="44" t="s">
+      <c r="F84" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G84" s="43">
+      <c r="G84" s="41">
         <v>9</v>
       </c>
-      <c r="H84" s="42">
+      <c r="H84" s="40">
         <v>7.5</v>
       </c>
       <c r="I84" s="12"/>
-      <c r="J84" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="K84" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="L84" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M84" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="N84" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="R84" s="35">
-        <v>0</v>
-      </c>
-      <c r="S84" s="34" t="s">
+      <c r="J84" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="K84" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L84" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="M84" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N84" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R84" s="33">
+        <v>0</v>
+      </c>
+      <c r="S84" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T84" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U84" s="33">
+      <c r="U84" s="31">
         <v>15</v>
       </c>
       <c r="V84" s="4" t="s">
@@ -6757,48 +6723,48 @@
       </c>
     </row>
     <row r="85" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B85" s="32"/>
-      <c r="C85" s="31">
-        <v>2</v>
-      </c>
-      <c r="D85" s="31">
-        <v>0</v>
-      </c>
-      <c r="E85" s="30" t="s">
+      <c r="B85" s="133"/>
+      <c r="C85" s="30">
+        <v>2</v>
+      </c>
+      <c r="D85" s="30">
+        <v>0</v>
+      </c>
+      <c r="E85" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F85" s="29" t="s">
+      <c r="F85" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G85" s="28">
+      <c r="G85" s="27">
         <v>7</v>
       </c>
-      <c r="H85" s="27">
+      <c r="H85" s="26">
         <v>7.5</v>
       </c>
       <c r="I85" s="12"/>
-      <c r="J85" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K85" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="L85" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M85" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N85" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R85" s="20">
-        <v>0</v>
-      </c>
-      <c r="S85" s="19" t="s">
+      <c r="J85" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K85" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L85" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M85" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N85" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R85" s="19">
+        <v>0</v>
+      </c>
+      <c r="S85" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T85" s="5" t="s">
@@ -6815,7 +6781,7 @@
       </c>
     </row>
     <row r="86" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="18"/>
+      <c r="B86" s="134"/>
       <c r="C86" s="17">
         <v>2</v>
       </c>
@@ -6848,13 +6814,13 @@
       <c r="N86" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q86" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="R86" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S86" s="34" t="s">
+      <c r="Q86" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R86" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S86" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T86" s="5" t="s">
@@ -6871,56 +6837,56 @@
       </c>
     </row>
     <row r="87" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B87" s="47">
+      <c r="B87" s="132">
         <v>3</v>
       </c>
-      <c r="C87" s="46">
+      <c r="C87" s="44">
         <v>3</v>
       </c>
-      <c r="D87" s="46">
-        <v>0</v>
-      </c>
-      <c r="E87" s="45" t="s">
+      <c r="D87" s="44">
+        <v>0</v>
+      </c>
+      <c r="E87" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="F87" s="44" t="s">
+      <c r="F87" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G87" s="43">
+      <c r="G87" s="41">
         <v>177</v>
       </c>
-      <c r="H87" s="42">
+      <c r="H87" s="40">
         <v>0.5</v>
       </c>
       <c r="I87" s="12"/>
-      <c r="J87" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="K87" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="L87" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M87" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="N87" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R87" s="20">
-        <v>0</v>
-      </c>
-      <c r="S87" s="19" t="s">
+      <c r="J87" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="K87" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L87" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="M87" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N87" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R87" s="19">
+        <v>0</v>
+      </c>
+      <c r="S87" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T87" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U87" s="33">
+      <c r="U87" s="31">
         <v>3</v>
       </c>
       <c r="V87" s="4" t="s">
@@ -6934,48 +6900,48 @@
       </c>
     </row>
     <row r="88" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B88" s="32"/>
-      <c r="C88" s="31">
+      <c r="B88" s="133"/>
+      <c r="C88" s="30">
         <v>3</v>
       </c>
-      <c r="D88" s="31">
-        <v>0</v>
-      </c>
-      <c r="E88" s="30" t="s">
+      <c r="D88" s="30">
+        <v>0</v>
+      </c>
+      <c r="E88" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F88" s="29" t="s">
+      <c r="F88" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G88" s="28">
+      <c r="G88" s="27">
         <v>32</v>
       </c>
-      <c r="H88" s="27">
+      <c r="H88" s="26">
         <v>2.5</v>
       </c>
       <c r="I88" s="12"/>
-      <c r="J88" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K88" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="L88" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M88" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N88" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="R88" s="35">
-        <v>0</v>
-      </c>
-      <c r="S88" s="34" t="s">
+      <c r="J88" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K88" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L88" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M88" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N88" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R88" s="33">
+        <v>0</v>
+      </c>
+      <c r="S88" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T88" s="5" t="s">
@@ -6992,7 +6958,7 @@
       </c>
     </row>
     <row r="89" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="18"/>
+      <c r="B89" s="134"/>
       <c r="C89" s="17">
         <v>3</v>
       </c>
@@ -7025,13 +6991,13 @@
       <c r="N89" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q89" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R89" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="S89" s="19" t="s">
+      <c r="Q89" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R89" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S89" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T89" s="5" t="s">
@@ -7048,56 +7014,56 @@
       </c>
     </row>
     <row r="90" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B90" s="47">
+      <c r="B90" s="132">
         <v>4</v>
       </c>
-      <c r="C90" s="46">
+      <c r="C90" s="44">
         <v>4</v>
       </c>
-      <c r="D90" s="46">
+      <c r="D90" s="44">
         <v>7</v>
       </c>
-      <c r="E90" s="45" t="s">
+      <c r="E90" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F90" s="44" t="s">
+      <c r="F90" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G90" s="43">
+      <c r="G90" s="41">
         <v>108</v>
       </c>
-      <c r="H90" s="42">
+      <c r="H90" s="40">
         <v>0.5</v>
       </c>
       <c r="I90" s="12"/>
-      <c r="J90" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="K90" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="L90" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M90" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="N90" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="R90" s="35">
-        <v>0</v>
-      </c>
-      <c r="S90" s="34" t="s">
+      <c r="J90" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="K90" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L90" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="M90" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N90" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R90" s="33">
+        <v>0</v>
+      </c>
+      <c r="S90" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T90" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U90" s="33">
+      <c r="U90" s="31">
         <v>0.5</v>
       </c>
       <c r="V90" s="4" t="s">
@@ -7111,48 +7077,48 @@
       </c>
     </row>
     <row r="91" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B91" s="32"/>
-      <c r="C91" s="31">
+      <c r="B91" s="133"/>
+      <c r="C91" s="30">
         <v>4</v>
       </c>
-      <c r="D91" s="31">
+      <c r="D91" s="30">
         <v>7</v>
       </c>
-      <c r="E91" s="30" t="s">
+      <c r="E91" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F91" s="29" t="s">
+      <c r="F91" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G91" s="28">
+      <c r="G91" s="27">
         <v>226</v>
       </c>
-      <c r="H91" s="27">
+      <c r="H91" s="26">
         <v>0</v>
       </c>
       <c r="I91" s="12"/>
-      <c r="J91" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K91" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="L91" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M91" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N91" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R91" s="20">
-        <v>0</v>
-      </c>
-      <c r="S91" s="19" t="s">
+      <c r="J91" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K91" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L91" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M91" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N91" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R91" s="19">
+        <v>0</v>
+      </c>
+      <c r="S91" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T91" s="5" t="s">
@@ -7169,7 +7135,7 @@
       </c>
     </row>
     <row r="92" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="18"/>
+      <c r="B92" s="134"/>
       <c r="C92" s="17">
         <v>4</v>
       </c>
@@ -7202,13 +7168,13 @@
       <c r="N92" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q92" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="R92" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S92" s="34" t="s">
+      <c r="Q92" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R92" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S92" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T92" s="5" t="s">
@@ -7225,56 +7191,56 @@
       </c>
     </row>
     <row r="93" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B93" s="47">
+      <c r="B93" s="132">
         <v>5</v>
       </c>
-      <c r="C93" s="46">
+      <c r="C93" s="44">
         <v>5</v>
       </c>
-      <c r="D93" s="46">
+      <c r="D93" s="44">
         <v>9</v>
       </c>
-      <c r="E93" s="45" t="s">
+      <c r="E93" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="F93" s="44" t="s">
+      <c r="F93" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G93" s="43">
+      <c r="G93" s="41">
         <v>10</v>
       </c>
-      <c r="H93" s="42">
+      <c r="H93" s="40">
         <v>7.5</v>
       </c>
       <c r="I93" s="12"/>
-      <c r="J93" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="K93" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="L93" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M93" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="N93" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R93" s="20">
-        <v>0</v>
-      </c>
-      <c r="S93" s="19" t="s">
+      <c r="J93" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="K93" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L93" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="M93" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N93" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R93" s="19">
+        <v>0</v>
+      </c>
+      <c r="S93" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T93" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U93" s="33">
+      <c r="U93" s="31">
         <v>8.5</v>
       </c>
       <c r="V93" s="4" t="s">
@@ -7288,48 +7254,48 @@
       </c>
     </row>
     <row r="94" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B94" s="32"/>
-      <c r="C94" s="31">
+      <c r="B94" s="133"/>
+      <c r="C94" s="30">
         <v>5</v>
       </c>
-      <c r="D94" s="31">
+      <c r="D94" s="30">
         <v>9</v>
       </c>
-      <c r="E94" s="30" t="s">
+      <c r="E94" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F94" s="29" t="s">
+      <c r="F94" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G94" s="28">
+      <c r="G94" s="27">
         <v>53</v>
       </c>
-      <c r="H94" s="27">
+      <c r="H94" s="26">
         <v>1</v>
       </c>
       <c r="I94" s="12"/>
-      <c r="J94" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K94" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="L94" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M94" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N94" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="R94" s="35">
-        <v>0</v>
-      </c>
-      <c r="S94" s="34" t="s">
+      <c r="J94" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K94" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L94" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M94" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N94" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R94" s="33">
+        <v>0</v>
+      </c>
+      <c r="S94" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T94" s="5" t="s">
@@ -7346,7 +7312,7 @@
       </c>
     </row>
     <row r="95" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="18"/>
+      <c r="B95" s="134"/>
       <c r="C95" s="17">
         <v>5</v>
       </c>
@@ -7379,13 +7345,13 @@
       <c r="N95" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q95" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R95" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="S95" s="19" t="s">
+      <c r="Q95" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R95" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S95" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T95" s="5" t="s">
@@ -7402,56 +7368,56 @@
       </c>
     </row>
     <row r="96" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B96" s="47">
+      <c r="B96" s="132">
         <v>6</v>
       </c>
-      <c r="C96" s="46">
+      <c r="C96" s="44">
         <v>6</v>
       </c>
-      <c r="D96" s="46">
+      <c r="D96" s="44">
         <v>11</v>
       </c>
-      <c r="E96" s="45" t="s">
+      <c r="E96" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="F96" s="44" t="s">
+      <c r="F96" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G96" s="43">
+      <c r="G96" s="41">
         <v>109</v>
       </c>
-      <c r="H96" s="42">
+      <c r="H96" s="40">
         <v>0.5</v>
       </c>
       <c r="I96" s="12"/>
-      <c r="J96" s="41">
+      <c r="J96" s="39">
         <v>28.799999999999997</v>
       </c>
-      <c r="K96" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="L96" s="39">
+      <c r="K96" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L96" s="37">
         <v>1.5</v>
       </c>
-      <c r="M96" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="N96" s="37">
+      <c r="M96" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N96" s="35">
         <v>30.299999999999997</v>
       </c>
-      <c r="Q96" s="36" t="s">
+      <c r="Q96" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="R96" s="35">
+      <c r="R96" s="33">
         <v>15.149999999999999</v>
       </c>
-      <c r="S96" s="34" t="s">
+      <c r="S96" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T96" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="U96" s="33">
+      <c r="U96" s="31">
         <v>1.5</v>
       </c>
       <c r="V96" s="4" t="s">
@@ -7465,48 +7431,48 @@
       </c>
     </row>
     <row r="97" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B97" s="32"/>
-      <c r="C97" s="31">
+      <c r="B97" s="133"/>
+      <c r="C97" s="30">
         <v>6</v>
       </c>
-      <c r="D97" s="31">
+      <c r="D97" s="30">
         <v>11</v>
       </c>
-      <c r="E97" s="30" t="s">
+      <c r="E97" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F97" s="29" t="s">
+      <c r="F97" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G97" s="28">
+      <c r="G97" s="27">
         <v>87</v>
       </c>
-      <c r="H97" s="27">
+      <c r="H97" s="26">
         <v>1</v>
       </c>
       <c r="I97" s="12"/>
-      <c r="J97" s="26">
+      <c r="J97" s="25">
         <v>28.799999999999997</v>
       </c>
-      <c r="K97" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="L97" s="24">
+      <c r="K97" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L97" s="23">
         <v>1.5</v>
       </c>
-      <c r="M97" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N97" s="22">
+      <c r="M97" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N97" s="21">
         <v>30.299999999999997</v>
       </c>
-      <c r="Q97" s="21" t="s">
+      <c r="Q97" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="R97" s="20">
+      <c r="R97" s="19">
         <v>15.149999999999999</v>
       </c>
-      <c r="S97" s="19" t="s">
+      <c r="S97" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T97" s="5" t="s">
@@ -7523,7 +7489,7 @@
       </c>
     </row>
     <row r="98" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="18"/>
+      <c r="B98" s="134"/>
       <c r="C98" s="17">
         <v>6</v>
       </c>
@@ -7556,13 +7522,13 @@
       <c r="N98" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q98" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="R98" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S98" s="34" t="s">
+      <c r="Q98" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R98" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S98" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T98" s="5" t="s">
@@ -7579,56 +7545,56 @@
       </c>
     </row>
     <row r="99" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B99" s="47">
+      <c r="B99" s="132">
         <v>7</v>
       </c>
-      <c r="C99" s="46">
+      <c r="C99" s="44">
         <v>7</v>
       </c>
-      <c r="D99" s="46">
+      <c r="D99" s="44">
         <v>13</v>
       </c>
-      <c r="E99" s="45" t="s">
+      <c r="E99" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="F99" s="44" t="s">
+      <c r="F99" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G99" s="43">
+      <c r="G99" s="41">
         <v>102</v>
       </c>
-      <c r="H99" s="42">
+      <c r="H99" s="40">
         <v>0.5</v>
       </c>
       <c r="I99" s="12"/>
-      <c r="J99" s="41">
+      <c r="J99" s="39">
         <v>24</v>
       </c>
-      <c r="K99" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="L99" s="39">
-        <v>0</v>
-      </c>
-      <c r="M99" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="N99" s="37">
+      <c r="K99" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L99" s="37">
+        <v>0</v>
+      </c>
+      <c r="M99" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N99" s="35">
         <v>24</v>
       </c>
-      <c r="Q99" s="21" t="s">
+      <c r="Q99" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="R99" s="20">
+      <c r="R99" s="19">
         <v>12</v>
       </c>
-      <c r="S99" s="19" t="s">
+      <c r="S99" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T99" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="U99" s="33">
+      <c r="U99" s="31">
         <v>1.5</v>
       </c>
       <c r="V99" s="4" t="s">
@@ -7642,48 +7608,48 @@
       </c>
     </row>
     <row r="100" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B100" s="32"/>
-      <c r="C100" s="31">
+      <c r="B100" s="133"/>
+      <c r="C100" s="30">
         <v>7</v>
       </c>
-      <c r="D100" s="31">
+      <c r="D100" s="30">
         <v>13</v>
       </c>
-      <c r="E100" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F100" s="29" t="s">
+      <c r="E100" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="F100" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G100" s="28">
+      <c r="G100" s="27">
         <v>95</v>
       </c>
-      <c r="H100" s="27">
+      <c r="H100" s="26">
         <v>1</v>
       </c>
       <c r="I100" s="12"/>
-      <c r="J100" s="26">
+      <c r="J100" s="25">
         <v>24</v>
       </c>
-      <c r="K100" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="L100" s="24">
-        <v>0</v>
-      </c>
-      <c r="M100" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N100" s="22">
+      <c r="K100" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L100" s="23">
+        <v>0</v>
+      </c>
+      <c r="M100" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N100" s="21">
         <v>24</v>
       </c>
-      <c r="Q100" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="R100" s="35">
+      <c r="Q100" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="R100" s="33">
         <v>12</v>
       </c>
-      <c r="S100" s="34" t="s">
+      <c r="S100" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T100" s="5" t="s">
@@ -7700,7 +7666,7 @@
       </c>
     </row>
     <row r="101" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="18"/>
+      <c r="B101" s="134"/>
       <c r="C101" s="17">
         <v>7</v>
       </c>
@@ -7733,13 +7699,13 @@
       <c r="N101" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q101" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R101" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="S101" s="19" t="s">
+      <c r="Q101" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R101" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S101" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T101" s="5" t="s">
@@ -7764,30 +7730,30 @@
       <c r="Y102" s="3"/>
     </row>
     <row r="103" spans="2:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="84" t="s">
+      <c r="B103" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C103" s="83"/>
-      <c r="D103" s="83"/>
-      <c r="E103" s="81"/>
-      <c r="F103" s="82" t="s">
+      <c r="C103" s="74"/>
+      <c r="D103" s="74"/>
+      <c r="E103" s="72"/>
+      <c r="F103" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="G103" s="81"/>
-      <c r="H103" s="80" t="s">
+      <c r="G103" s="72"/>
+      <c r="H103" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="I103" s="79"/>
-      <c r="J103" s="78"/>
-      <c r="K103" s="78"/>
-      <c r="L103" s="78"/>
-      <c r="M103" s="78"/>
-      <c r="N103" s="77"/>
-      <c r="O103" s="66"/>
-      <c r="P103" s="65"/>
-      <c r="Q103" s="76"/>
-      <c r="R103" s="75"/>
-      <c r="S103" s="74"/>
+      <c r="I103" s="70"/>
+      <c r="J103" s="69"/>
+      <c r="K103" s="69"/>
+      <c r="L103" s="69"/>
+      <c r="M103" s="69"/>
+      <c r="N103" s="68"/>
+      <c r="O103" s="60"/>
+      <c r="P103" s="59"/>
+      <c r="Q103" s="135"/>
+      <c r="R103" s="136"/>
+      <c r="S103" s="137"/>
       <c r="T103" s="5">
         <v>6</v>
       </c>
@@ -7795,71 +7761,71 @@
       <c r="Y103" s="3"/>
     </row>
     <row r="104" spans="2:25" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="73" t="s">
+      <c r="B104" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C104" s="73"/>
-      <c r="D104" s="73"/>
-      <c r="E104" s="72" t="s">
+      <c r="C104" s="67"/>
+      <c r="D104" s="67"/>
+      <c r="E104" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F104" s="71" t="s">
+      <c r="F104" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="G104" s="71" t="s">
+      <c r="G104" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="H104" s="71" t="s">
+      <c r="H104" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I104" s="70"/>
-      <c r="J104" s="69" t="s">
+      <c r="I104" s="64"/>
+      <c r="J104" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="K104" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="L104" s="68" t="s">
+      <c r="K104" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="L104" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="M104" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="N104" s="67" t="s">
+      <c r="M104" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="N104" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="O104" s="66"/>
-      <c r="P104" s="65"/>
-      <c r="Q104" s="64" t="s">
+      <c r="O104" s="60"/>
+      <c r="P104" s="59"/>
+      <c r="Q104" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="R104" s="63"/>
-      <c r="S104" s="62"/>
+      <c r="R104" s="139"/>
+      <c r="S104" s="140"/>
       <c r="T104" s="5"/>
       <c r="W104" s="4"/>
       <c r="Y104" s="3"/>
     </row>
     <row r="105" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="57"/>
-      <c r="C105" s="61"/>
-      <c r="D105" s="61"/>
-      <c r="E105" s="60"/>
-      <c r="F105" s="56"/>
-      <c r="G105" s="56"/>
-      <c r="H105" s="59"/>
-      <c r="I105" s="58"/>
-      <c r="J105" s="57"/>
-      <c r="K105" s="56"/>
-      <c r="L105" s="55"/>
-      <c r="M105" s="55"/>
-      <c r="N105" s="54"/>
-      <c r="Q105" s="53" t="s">
+      <c r="B105" s="54"/>
+      <c r="C105" s="58"/>
+      <c r="D105" s="58"/>
+      <c r="E105" s="57"/>
+      <c r="F105" s="53"/>
+      <c r="G105" s="53"/>
+      <c r="H105" s="56"/>
+      <c r="I105" s="55"/>
+      <c r="J105" s="54"/>
+      <c r="K105" s="53"/>
+      <c r="L105" s="52"/>
+      <c r="M105" s="52"/>
+      <c r="N105" s="51"/>
+      <c r="Q105" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="R105" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="S105" s="51" t="s">
+      <c r="R105" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="S105" s="48" t="s">
         <v>1</v>
       </c>
       <c r="T105" s="5"/>
@@ -7867,56 +7833,56 @@
       <c r="Y105" s="3"/>
     </row>
     <row r="106" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B106" s="47">
+      <c r="B106" s="132">
         <v>1</v>
       </c>
-      <c r="C106" s="46">
+      <c r="C106" s="44">
         <v>1</v>
       </c>
-      <c r="D106" s="46">
-        <v>0</v>
-      </c>
-      <c r="E106" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="F106" s="44" t="s">
+      <c r="D106" s="44">
+        <v>0</v>
+      </c>
+      <c r="E106" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F106" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G106" s="43">
+      <c r="G106" s="41">
         <v>6</v>
       </c>
-      <c r="H106" s="42">
+      <c r="H106" s="40">
         <v>7.5</v>
       </c>
       <c r="I106" s="12"/>
-      <c r="J106" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="K106" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="L106" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M106" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="N106" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q106" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="R106" s="49">
-        <v>0</v>
-      </c>
-      <c r="S106" s="48" t="s">
+      <c r="J106" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="K106" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L106" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="M106" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N106" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="R106" s="46">
+        <v>0</v>
+      </c>
+      <c r="S106" s="45" t="s">
         <v>0</v>
       </c>
       <c r="T106" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U106" s="33">
+      <c r="U106" s="31">
         <v>12.5</v>
       </c>
       <c r="V106" s="4" t="s">
@@ -7930,48 +7896,48 @@
       </c>
     </row>
     <row r="107" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B107" s="32"/>
-      <c r="C107" s="31">
+      <c r="B107" s="133"/>
+      <c r="C107" s="30">
         <v>1</v>
       </c>
-      <c r="D107" s="31">
-        <v>0</v>
-      </c>
-      <c r="E107" s="30" t="s">
+      <c r="D107" s="30">
+        <v>0</v>
+      </c>
+      <c r="E107" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F107" s="29" t="s">
+      <c r="F107" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G107" s="28">
+      <c r="G107" s="27">
         <v>14</v>
       </c>
-      <c r="H107" s="27">
+      <c r="H107" s="26">
         <v>5</v>
       </c>
       <c r="I107" s="12"/>
-      <c r="J107" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K107" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="L107" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M107" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N107" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q107" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="R107" s="35">
-        <v>0</v>
-      </c>
-      <c r="S107" s="34" t="s">
+      <c r="J107" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K107" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L107" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M107" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N107" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R107" s="33">
+        <v>0</v>
+      </c>
+      <c r="S107" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T107" s="5" t="s">
@@ -7988,7 +7954,7 @@
       </c>
     </row>
     <row r="108" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="18"/>
+      <c r="B108" s="134"/>
       <c r="C108" s="17">
         <v>1</v>
       </c>
@@ -8021,13 +7987,13 @@
       <c r="N108" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q108" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R108" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="S108" s="19" t="s">
+      <c r="Q108" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R108" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S108" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T108" s="5" t="s">
@@ -8044,56 +8010,56 @@
       </c>
     </row>
     <row r="109" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B109" s="47">
-        <v>2</v>
-      </c>
-      <c r="C109" s="46">
-        <v>2</v>
-      </c>
-      <c r="D109" s="46">
-        <v>0</v>
-      </c>
-      <c r="E109" s="45" t="s">
+      <c r="B109" s="132">
+        <v>2</v>
+      </c>
+      <c r="C109" s="44">
+        <v>2</v>
+      </c>
+      <c r="D109" s="44">
+        <v>0</v>
+      </c>
+      <c r="E109" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="F109" s="44" t="s">
+      <c r="F109" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G109" s="43">
+      <c r="G109" s="41">
         <v>26</v>
       </c>
-      <c r="H109" s="42">
+      <c r="H109" s="40">
         <v>2.5</v>
       </c>
       <c r="I109" s="12"/>
-      <c r="J109" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="K109" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="L109" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M109" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="N109" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q109" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="R109" s="35">
-        <v>0</v>
-      </c>
-      <c r="S109" s="34" t="s">
+      <c r="J109" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="K109" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L109" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="M109" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N109" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R109" s="33">
+        <v>0</v>
+      </c>
+      <c r="S109" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T109" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U109" s="33">
+      <c r="U109" s="31">
         <v>7.5</v>
       </c>
       <c r="V109" s="4" t="s">
@@ -8107,48 +8073,48 @@
       </c>
     </row>
     <row r="110" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B110" s="32"/>
-      <c r="C110" s="31">
-        <v>2</v>
-      </c>
-      <c r="D110" s="31">
-        <v>0</v>
-      </c>
-      <c r="E110" s="30" t="s">
+      <c r="B110" s="133"/>
+      <c r="C110" s="30">
+        <v>2</v>
+      </c>
+      <c r="D110" s="30">
+        <v>0</v>
+      </c>
+      <c r="E110" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F110" s="29" t="s">
+      <c r="F110" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G110" s="28">
+      <c r="G110" s="27">
         <v>18</v>
       </c>
-      <c r="H110" s="27">
+      <c r="H110" s="26">
         <v>5</v>
       </c>
       <c r="I110" s="12"/>
-      <c r="J110" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K110" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="L110" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M110" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N110" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q110" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R110" s="20">
-        <v>0</v>
-      </c>
-      <c r="S110" s="19" t="s">
+      <c r="J110" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K110" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L110" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M110" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N110" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R110" s="19">
+        <v>0</v>
+      </c>
+      <c r="S110" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T110" s="5" t="s">
@@ -8165,7 +8131,7 @@
       </c>
     </row>
     <row r="111" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="18"/>
+      <c r="B111" s="134"/>
       <c r="C111" s="17">
         <v>2</v>
       </c>
@@ -8198,13 +8164,13 @@
       <c r="N111" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q111" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="R111" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S111" s="34" t="s">
+      <c r="Q111" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R111" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S111" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T111" s="5" t="s">
@@ -8221,56 +8187,56 @@
       </c>
     </row>
     <row r="112" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B112" s="47">
+      <c r="B112" s="132">
         <v>3</v>
       </c>
-      <c r="C112" s="46">
+      <c r="C112" s="44">
         <v>3</v>
       </c>
-      <c r="D112" s="46">
-        <v>0</v>
-      </c>
-      <c r="E112" s="45" t="s">
+      <c r="D112" s="44">
+        <v>0</v>
+      </c>
+      <c r="E112" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="F112" s="44" t="s">
+      <c r="F112" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G112" s="43">
+      <c r="G112" s="41">
         <v>161</v>
       </c>
-      <c r="H112" s="42">
+      <c r="H112" s="40">
         <v>0.5</v>
       </c>
       <c r="I112" s="12"/>
-      <c r="J112" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="K112" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="L112" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M112" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="N112" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q112" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R112" s="20">
-        <v>0</v>
-      </c>
-      <c r="S112" s="19" t="s">
+      <c r="J112" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="K112" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L112" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="M112" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N112" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R112" s="19">
+        <v>0</v>
+      </c>
+      <c r="S112" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T112" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U112" s="33">
+      <c r="U112" s="31">
         <v>3</v>
       </c>
       <c r="V112" s="4" t="s">
@@ -8284,48 +8250,48 @@
       </c>
     </row>
     <row r="113" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B113" s="32"/>
-      <c r="C113" s="31">
+      <c r="B113" s="133"/>
+      <c r="C113" s="30">
         <v>3</v>
       </c>
-      <c r="D113" s="31">
-        <v>0</v>
-      </c>
-      <c r="E113" s="30" t="s">
+      <c r="D113" s="30">
+        <v>0</v>
+      </c>
+      <c r="E113" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F113" s="29" t="s">
+      <c r="F113" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G113" s="28">
+      <c r="G113" s="27">
         <v>44</v>
       </c>
-      <c r="H113" s="27">
+      <c r="H113" s="26">
         <v>2.5</v>
       </c>
       <c r="I113" s="12"/>
-      <c r="J113" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K113" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="L113" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M113" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N113" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q113" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="R113" s="35">
-        <v>0</v>
-      </c>
-      <c r="S113" s="34" t="s">
+      <c r="J113" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K113" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L113" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M113" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N113" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R113" s="33">
+        <v>0</v>
+      </c>
+      <c r="S113" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T113" s="5" t="s">
@@ -8342,7 +8308,7 @@
       </c>
     </row>
     <row r="114" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="18"/>
+      <c r="B114" s="134"/>
       <c r="C114" s="17">
         <v>3</v>
       </c>
@@ -8375,13 +8341,13 @@
       <c r="N114" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q114" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R114" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="S114" s="19" t="s">
+      <c r="Q114" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R114" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S114" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T114" s="5" t="s">
@@ -8398,56 +8364,56 @@
       </c>
     </row>
     <row r="115" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B115" s="47">
+      <c r="B115" s="132">
         <v>4</v>
       </c>
-      <c r="C115" s="46">
+      <c r="C115" s="44">
         <v>4</v>
       </c>
-      <c r="D115" s="46">
-        <v>0</v>
-      </c>
-      <c r="E115" s="45" t="s">
+      <c r="D115" s="44">
+        <v>0</v>
+      </c>
+      <c r="E115" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="F115" s="44" t="s">
+      <c r="F115" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G115" s="43">
+      <c r="G115" s="41">
         <v>57</v>
       </c>
-      <c r="H115" s="42">
+      <c r="H115" s="40">
         <v>1</v>
       </c>
       <c r="I115" s="12"/>
-      <c r="J115" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="K115" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="L115" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M115" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="N115" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q115" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="R115" s="35">
-        <v>0</v>
-      </c>
-      <c r="S115" s="34" t="s">
+      <c r="J115" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="K115" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L115" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="M115" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N115" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R115" s="33">
+        <v>0</v>
+      </c>
+      <c r="S115" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T115" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U115" s="33">
+      <c r="U115" s="31">
         <v>1.5</v>
       </c>
       <c r="V115" s="4" t="s">
@@ -8461,48 +8427,48 @@
       </c>
     </row>
     <row r="116" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B116" s="32"/>
-      <c r="C116" s="31">
+      <c r="B116" s="133"/>
+      <c r="C116" s="30">
         <v>4</v>
       </c>
-      <c r="D116" s="31">
-        <v>0</v>
-      </c>
-      <c r="E116" s="30" t="s">
+      <c r="D116" s="30">
+        <v>0</v>
+      </c>
+      <c r="E116" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F116" s="29" t="s">
+      <c r="F116" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G116" s="28">
+      <c r="G116" s="27">
         <v>133</v>
       </c>
-      <c r="H116" s="27">
+      <c r="H116" s="26">
         <v>0.5</v>
       </c>
       <c r="I116" s="12"/>
-      <c r="J116" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K116" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="L116" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M116" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N116" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q116" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R116" s="20">
-        <v>0</v>
-      </c>
-      <c r="S116" s="19" t="s">
+      <c r="J116" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K116" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L116" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M116" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N116" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R116" s="19">
+        <v>0</v>
+      </c>
+      <c r="S116" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T116" s="5" t="s">
@@ -8519,7 +8485,7 @@
       </c>
     </row>
     <row r="117" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="18"/>
+      <c r="B117" s="134"/>
       <c r="C117" s="17">
         <v>4</v>
       </c>
@@ -8552,13 +8518,13 @@
       <c r="N117" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q117" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="R117" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S117" s="34" t="s">
+      <c r="Q117" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R117" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S117" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T117" s="5" t="s">
@@ -8575,56 +8541,56 @@
       </c>
     </row>
     <row r="118" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B118" s="47">
+      <c r="B118" s="132">
         <v>5</v>
       </c>
-      <c r="C118" s="46">
+      <c r="C118" s="44">
         <v>5</v>
       </c>
-      <c r="D118" s="46">
-        <v>0</v>
-      </c>
-      <c r="E118" s="45" t="s">
+      <c r="D118" s="44">
+        <v>0</v>
+      </c>
+      <c r="E118" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="F118" s="44" t="s">
+      <c r="F118" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G118" s="43">
+      <c r="G118" s="41">
         <v>107</v>
       </c>
-      <c r="H118" s="42">
+      <c r="H118" s="40">
         <v>0.5</v>
       </c>
       <c r="I118" s="12"/>
-      <c r="J118" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="K118" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="L118" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M118" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="N118" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q118" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R118" s="20">
-        <v>0</v>
-      </c>
-      <c r="S118" s="19" t="s">
+      <c r="J118" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="K118" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L118" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="M118" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N118" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R118" s="19">
+        <v>0</v>
+      </c>
+      <c r="S118" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T118" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U118" s="33">
+      <c r="U118" s="31">
         <v>1</v>
       </c>
       <c r="V118" s="4" t="s">
@@ -8638,48 +8604,48 @@
       </c>
     </row>
     <row r="119" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B119" s="32"/>
-      <c r="C119" s="31">
+      <c r="B119" s="133"/>
+      <c r="C119" s="30">
         <v>5</v>
       </c>
-      <c r="D119" s="31">
-        <v>0</v>
-      </c>
-      <c r="E119" s="30" t="s">
+      <c r="D119" s="30">
+        <v>0</v>
+      </c>
+      <c r="E119" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F119" s="29" t="s">
+      <c r="F119" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G119" s="28">
+      <c r="G119" s="27">
         <v>112</v>
       </c>
-      <c r="H119" s="27">
+      <c r="H119" s="26">
         <v>0.5</v>
       </c>
       <c r="I119" s="12"/>
-      <c r="J119" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K119" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="L119" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M119" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N119" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q119" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="R119" s="35">
-        <v>0</v>
-      </c>
-      <c r="S119" s="34" t="s">
+      <c r="J119" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K119" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L119" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M119" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N119" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R119" s="33">
+        <v>0</v>
+      </c>
+      <c r="S119" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T119" s="5" t="s">
@@ -8696,7 +8662,7 @@
       </c>
     </row>
     <row r="120" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="18"/>
+      <c r="B120" s="134"/>
       <c r="C120" s="17">
         <v>5</v>
       </c>
@@ -8729,13 +8695,13 @@
       <c r="N120" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q120" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R120" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="S120" s="19" t="s">
+      <c r="Q120" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R120" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S120" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T120" s="5" t="s">
@@ -8752,56 +8718,56 @@
       </c>
     </row>
     <row r="121" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B121" s="47">
+      <c r="B121" s="132">
         <v>6</v>
       </c>
-      <c r="C121" s="46">
+      <c r="C121" s="44">
         <v>6</v>
       </c>
-      <c r="D121" s="46">
+      <c r="D121" s="44">
         <v>11</v>
       </c>
-      <c r="E121" s="45" t="s">
+      <c r="E121" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F121" s="44" t="s">
+      <c r="F121" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G121" s="43">
+      <c r="G121" s="41">
         <v>146</v>
       </c>
-      <c r="H121" s="42">
+      <c r="H121" s="40">
         <v>0.5</v>
       </c>
       <c r="I121" s="12"/>
-      <c r="J121" s="41">
+      <c r="J121" s="39">
         <v>28.799999999999997</v>
       </c>
-      <c r="K121" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="L121" s="39">
-        <v>0</v>
-      </c>
-      <c r="M121" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="N121" s="37">
+      <c r="K121" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L121" s="37">
+        <v>0</v>
+      </c>
+      <c r="M121" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N121" s="35">
         <v>28.799999999999997</v>
       </c>
-      <c r="Q121" s="36" t="s">
+      <c r="Q121" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="R121" s="35">
+      <c r="R121" s="33">
         <v>14.399999999999999</v>
       </c>
-      <c r="S121" s="34" t="s">
+      <c r="S121" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T121" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="U121" s="33">
+      <c r="U121" s="31">
         <v>1</v>
       </c>
       <c r="V121" s="4" t="s">
@@ -8815,48 +8781,48 @@
       </c>
     </row>
     <row r="122" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B122" s="32"/>
-      <c r="C122" s="31">
+      <c r="B122" s="133"/>
+      <c r="C122" s="30">
         <v>6</v>
       </c>
-      <c r="D122" s="31">
+      <c r="D122" s="30">
         <v>11</v>
       </c>
-      <c r="E122" s="30" t="s">
+      <c r="E122" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F122" s="29" t="s">
+      <c r="F122" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G122" s="28">
+      <c r="G122" s="27">
         <v>115</v>
       </c>
-      <c r="H122" s="27">
+      <c r="H122" s="26">
         <v>0.5</v>
       </c>
       <c r="I122" s="12"/>
-      <c r="J122" s="26">
+      <c r="J122" s="25">
         <v>28.799999999999997</v>
       </c>
-      <c r="K122" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="L122" s="24">
-        <v>0</v>
-      </c>
-      <c r="M122" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N122" s="22">
+      <c r="K122" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L122" s="23">
+        <v>0</v>
+      </c>
+      <c r="M122" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N122" s="21">
         <v>28.799999999999997</v>
       </c>
-      <c r="Q122" s="21" t="s">
+      <c r="Q122" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="R122" s="20">
+      <c r="R122" s="19">
         <v>14.399999999999999</v>
       </c>
-      <c r="S122" s="19" t="s">
+      <c r="S122" s="18" t="s">
         <v>0</v>
       </c>
       <c r="T122" s="5" t="s">
@@ -8873,7 +8839,7 @@
       </c>
     </row>
     <row r="123" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="18"/>
+      <c r="B123" s="134"/>
       <c r="C123" s="17">
         <v>6</v>
       </c>
@@ -8906,13 +8872,13 @@
       <c r="N123" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q123" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="R123" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S123" s="34" t="s">
+      <c r="Q123" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R123" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S123" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T123" s="5" t="s">
@@ -8930,34 +8896,32 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="Q103:S103"/>
-    <mergeCell ref="Q104:S104"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="Q79:S79"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="Q78:S78"/>
-    <mergeCell ref="Q59:S59"/>
-    <mergeCell ref="Q60:S60"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="N38:N41"/>
-    <mergeCell ref="Q38:S41"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="Q15:S15"/>
     <mergeCell ref="B52:B54"/>
     <mergeCell ref="Q37:S37"/>
     <mergeCell ref="B38:B41"/>
@@ -8969,32 +8933,34 @@
     <mergeCell ref="K38:K41"/>
     <mergeCell ref="L38:L41"/>
     <mergeCell ref="M38:M41"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="Q38:S41"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="Q78:S78"/>
+    <mergeCell ref="Q59:S59"/>
+    <mergeCell ref="Q60:S60"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="Q79:S79"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="Q103:S103"/>
+    <mergeCell ref="Q104:S104"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="B121:B123"/>
   </mergeCells>
   <conditionalFormatting sqref="Q18:S35 Q43:S57 Q62:S76 Q81:S101 Q106:S123">
     <cfRule type="expression" dxfId="0" priority="5">
@@ -9002,32 +8968,32 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="H15">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="H15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Pools</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="F15">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="F15" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Rounds</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="New Player or Error" error="This Player is not in the Rankings or you just made an typing error. Please correct your error, or add the player to the rankings list!" sqref="E62:E76 E18:E35 E81:E101 E106:E123 E43:E57">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="New Player or Error" error="This Player is not in the Rankings or you just made an typing error. Please correct your error, or add the player to the rankings list!" sqref="E62:E76 E18:E35 E81:E101 E106:E123 E43:E57" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>players_sorted2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B59 B15 B37 B78 B103">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B59 B15 B37 B78 B103" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>All_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I37:I40 H37 H59:I59 I15 I78:I79 H78 I103:I104 H103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I37:I40 H37 H59:I59 I15 I78:I79 H78 I103:I104 H103" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>Pools</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" sqref="F37 F59 F78 F103"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:M10">
+    <dataValidation allowBlank="1" sqref="F37 F59 F78 F103" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:M10" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>Other_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:M9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:M9" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>Women_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:M8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:M8" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>Open_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" sqref="I7:M7">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" sqref="I7:M7" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>Categories</formula1>
     </dataValidation>
   </dataValidations>
